--- a/intensities/armyopiskelijamalli.xlsx
+++ b/intensities/armyopiskelijamalli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5468935-B6CB-0C44-B7C3-44CD41089309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0D3345-AEF7-7B4E-8CB1-6CAA2107A3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="820" windowWidth="22880" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
+    <workbookView xWindow="60" yWindow="960" windowWidth="27300" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
   </bookViews>
   <sheets>
     <sheet name="miehet" sheetId="1" r:id="rId1"/>
@@ -82,13 +82,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.00000_ ;\-0.00000\ "/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.000000\ _€_-;\-* #,##0.000000\ _€_-;_-* &quot;-&quot;??????\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -134,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -145,6 +146,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -463,7 +465,7 @@
   <dimension ref="B1:U310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="I5:J54"/>
+      <selection activeCell="O5" sqref="O5:O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,8 +569,8 @@
         <v>-4.4680666057997476E-2</v>
       </c>
       <c r="I5" s="3">
-        <f>IF(H5&lt;0,-H5/D5,0)</f>
-        <v>0.18584926985849268</v>
+        <f>IF(H5&lt;0,-H5/F5,0)</f>
+        <v>0.13558941882709941</v>
       </c>
       <c r="J5">
         <f>IF(H5&gt;0,H5/G5,0)</f>
@@ -578,24 +580,24 @@
         <v>0.2</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" ref="L5:L14" si="0">K5*D5/G5</f>
-        <v>9.548665255678114E-2</v>
+        <f>K5*F5/G5</f>
+        <v>0.13088133876832092</v>
       </c>
       <c r="N5" s="6">
         <f>I5+K5</f>
-        <v>0.38584926985849266</v>
+        <v>0.33558941882709942</v>
       </c>
       <c r="O5" s="4">
         <f>L5+J5</f>
-        <v>9.548665255678114E-2</v>
+        <v>0.13088133876832092</v>
       </c>
       <c r="Q5" s="4">
-        <f>N5*D5</f>
-        <v>9.2763358114864566E-2</v>
+        <f>N5*F5</f>
+        <v>0.11058649623929394</v>
       </c>
       <c r="R5" s="5">
         <f>O5*G5</f>
-        <v>4.8082692056867098E-2</v>
+        <v>6.5905830181296463E-2</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
@@ -610,19 +612,19 @@
         <v>1.5498737373737373E-2</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:F55" si="1">E6+D6</f>
+        <f t="shared" ref="F6:F55" si="0">E6+D6</f>
         <v>0.28484848484848485</v>
       </c>
       <c r="G6" s="2">
         <v>0.62155690257818186</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:H54" si="2">F7-F6</f>
+        <f t="shared" ref="H6:H54" si="1">F7-F6</f>
         <v>-5.7355619962093374E-3</v>
       </c>
       <c r="I6" s="3">
-        <f>-H6/D6</f>
-        <v>2.1294105711931535E-2</v>
+        <f t="shared" ref="I6:I54" si="2">IF(H6&lt;0,-H6/F6,0)</f>
+        <v>2.013548360371363E-2</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J54" si="3">IF(H6&gt;0,H6/G6,0)</f>
@@ -632,37 +634,37 @@
         <v>0.2</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" si="0"/>
-        <v>8.6669376965327047E-2</v>
+        <f t="shared" ref="L6:L54" si="4">K6*F6/G6</f>
+        <v>9.1656446470773617E-2</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" ref="N6:N54" si="4">I6+K6</f>
-        <v>0.22129410571193153</v>
+        <f t="shared" ref="N6:N54" si="5">I6+K6</f>
+        <v>0.22013548360371366</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" ref="O6:O54" si="5">L6+J6</f>
-        <v>8.6669376965327047E-2</v>
+        <f t="shared" ref="O6:O54" si="6">L6+J6</f>
+        <v>9.1656446470773617E-2</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" ref="Q6:Q54" si="6">N6*D6</f>
-        <v>5.9605511491158836E-2</v>
+        <f t="shared" ref="Q6:Q54" si="7">N6*F6</f>
+        <v>6.2705258965906313E-2</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" ref="R6:R54" si="7">O6*G6</f>
-        <v>5.3869949494949505E-2</v>
+        <f t="shared" ref="R6:R54" si="8">O6*G6</f>
+        <v>5.6969696969696976E-2</v>
       </c>
       <c r="T6" s="3">
-        <f>D5+R5-Q5</f>
-        <v>0.19573279422633799</v>
+        <f>F5+R5-Q5</f>
+        <v>0.28484848484848485</v>
       </c>
       <c r="U6" s="3">
-        <f>D6-T6</f>
-        <v>7.36169532484095E-2</v>
+        <f>F6-T6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C55" si="8">1+C6</f>
+        <f t="shared" ref="C7:C55" si="9">1+C6</f>
         <v>22</v>
       </c>
       <c r="D7" s="2">
@@ -672,19 +674,19 @@
         <v>6.2971525918715018E-3</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.27911292285227551</v>
       </c>
       <c r="G7" s="2">
         <v>0.63646626610513024</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.2774894683261437E-2</v>
       </c>
       <c r="I7" s="3">
-        <f>-H7/D7</f>
-        <v>8.3480858388511367E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.1597421038492629E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -694,37 +696,37 @@
         <v>0.2</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="0"/>
-        <v>8.572827337100089E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.7707059341986304E-2</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="4"/>
-        <v>0.28348085838851139</v>
+        <f t="shared" si="5"/>
+        <v>0.28159742103849261</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="5"/>
-        <v>8.572827337100089E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.7707059341986304E-2</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="6"/>
-        <v>7.7338048735342238E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.8597479253716532E-2</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="7"/>
-        <v>5.4563154052080801E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.5822584570455101E-2</v>
       </c>
       <c r="T7" s="3">
         <f>T6+R6-Q6</f>
-        <v>0.18999723223012865</v>
+        <v>0.27911292285227551</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" ref="U7:U55" si="9">D7-T7</f>
-        <v>8.2818538030275335E-2</v>
+        <f t="shared" ref="U7:U55" si="10">F7-T7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="D8" s="2">
@@ -734,19 +736,19 @@
         <v>3.9906103286384978E-3</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.25633802816901408</v>
       </c>
       <c r="G8" s="2">
         <v>0.66095088392173706</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.7411638214754026E-2</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" ref="I8:I54" si="10">-H8/D8</f>
-        <v>0.18788239887893224</v>
+        <f t="shared" si="2"/>
+        <v>0.1849574897388756</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -756,37 +758,37 @@
         <v>0.2</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" si="0"/>
-        <v>7.6358901691174971E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.7566437810942385E-2</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="4"/>
-        <v>0.38788239887893228</v>
+        <f t="shared" si="5"/>
+        <v>0.38495748973887561</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="5"/>
-        <v>7.6358901691174971E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.7566437810942385E-2</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="6"/>
-        <v>9.788112178282915E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.867924384855685E-2</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="7"/>
-        <v>5.0469483568075117E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.1267605633802817E-2</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" ref="T8:T55" si="11">T7+R7-Q7</f>
-        <v>0.16722233754686722</v>
+        <v>0.25633802816901408</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="9"/>
-        <v>8.5125080293508348E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="D9" s="2">
@@ -796,19 +798,19 @@
         <v>2.244381942668826E-3</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.20892638995426005</v>
       </c>
       <c r="G9" s="2">
         <v>0.70683222031487281</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.858526265278032E-2</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="10"/>
-        <v>0.2350725306000295</v>
+        <f t="shared" si="2"/>
+        <v>0.23254727496807379</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
@@ -818,37 +820,37 @@
         <v>0.2</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="0"/>
-        <v>5.8481207299667388E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.9116260959691268E-2</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" si="4"/>
-        <v>0.43507253060002948</v>
+        <f t="shared" si="5"/>
+        <v>0.43254727496807377</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="5"/>
-        <v>5.8481207299667388E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.9116260959691268E-2</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="6"/>
-        <v>8.9921664255098566E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.0370540643632327E-2</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="7"/>
-        <v>4.1336401602318246E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.1785277990852014E-2</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="11"/>
-        <v>0.11981069933211319</v>
+        <v>0.20892638995426005</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="9"/>
-        <v>8.6871308679478038E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="D10" s="2">
@@ -858,19 +860,19 @@
         <v>1.7508189314356716E-3</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16034112730147973</v>
       </c>
       <c r="G10" s="2">
         <v>0.75505663084991081</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.7025344933449486E-2</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="10"/>
-        <v>0.23346536944147314</v>
+        <f t="shared" si="2"/>
+        <v>0.23091608220910764</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -880,37 +882,37 @@
         <v>0.2</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="0"/>
-        <v>4.2007526823923343E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.2471285132876908E-2</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="4"/>
-        <v>0.43346536944147318</v>
+        <f t="shared" si="5"/>
+        <v>0.43091608220910765</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="5"/>
-        <v>4.2007526823923343E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.2471285132876908E-2</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="6"/>
-        <v>6.8743406607458313E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.9093570393745432E-2</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="7"/>
-        <v>3.1718061674008813E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.2068225460295946E-2</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="11"/>
-        <v>7.1225436679332871E-2</v>
+        <v>0.16034112730147976</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="9"/>
-        <v>8.7364871690711193E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="D11" s="2">
@@ -920,19 +922,19 @@
         <v>1.1070608883488591E-3</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.12331578236803024</v>
       </c>
       <c r="G11" s="2">
         <v>0.78977905157575268</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.6356516734065819E-2</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="10"/>
-        <v>0.21566805065093406</v>
+        <f t="shared" si="2"/>
+        <v>0.21373190217782517</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
@@ -942,37 +944,37 @@
         <v>0.2</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="0"/>
-        <v>3.0947572295277465E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.1227919282486121E-2</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="4"/>
-        <v>0.41566805065093404</v>
+        <f t="shared" si="5"/>
+        <v>0.41373190217782518</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="5"/>
-        <v>3.0947572295277465E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.1227919282486121E-2</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="6"/>
-        <v>5.0798261030002095E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.1019673207671867E-2</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="7"/>
-        <v>2.4441744295936277E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4663156473606049E-2</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="11"/>
-        <v>3.4200091745883371E-2</v>
+        <v>0.12331578236803027</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8008629733798013E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="D12" s="2">
@@ -982,19 +984,19 @@
         <v>9.835259404966806E-4</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.6959265633964425E-2</v>
       </c>
       <c r="G12" s="2">
         <v>0.81122620441500426</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.0245095158030038E-2</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="10"/>
-        <v>0.21093971479344534</v>
+        <f t="shared" si="2"/>
+        <v>0.20880000509139857</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -1004,37 +1006,37 @@
         <v>0.2</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" si="0"/>
-        <v>2.3661893358752701E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.3904372197612676E-2</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="4"/>
-        <v>0.41093971479344538</v>
+        <f t="shared" si="5"/>
+        <v>0.40880000509139858</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="5"/>
-        <v>2.3661893358752701E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.3904372197612676E-2</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="6"/>
-        <v>3.9440243096723587E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.9636948284822927E-2</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="7"/>
-        <v>1.9195147938693549E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.9391853126792886E-2</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="11"/>
-        <v>7.8435750118175523E-3</v>
+        <v>9.6959265633964453E-2</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8132164681650194E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="D13" s="2">
@@ -1044,19 +1046,19 @@
         <v>7.5289056197902667E-4</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6714170475934387E-2</v>
       </c>
       <c r="G13" s="2">
         <v>0.8309707110923098</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.4233060433346122E-2</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="10"/>
-        <v>0.18737257257208575</v>
+        <f t="shared" si="2"/>
+        <v>0.18553365493029875</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -1066,37 +1068,37 @@
         <v>0.2</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8282540864552103E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.8463748349227309E-2</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="4"/>
-        <v>0.38737257257208579</v>
+        <f t="shared" si="5"/>
+        <v>0.38553365493029879</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="5"/>
-        <v>1.8282540864552103E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.8463748349227309E-2</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="6"/>
-        <v>2.9425316416137198E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.9575894528533004E-2</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="7"/>
-        <v>1.5192255982791074E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.5342834095186879E-2</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="11"/>
-        <v>-1.2401520146212486E-2</v>
+        <v>7.6714170475934401E-2</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8362800060167848E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="D14" s="2">
@@ -1106,19 +1108,19 @@
         <v>7.6933644731419146E-4</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2481110042588266E-2</v>
       </c>
       <c r="G14" s="2">
         <v>0.84584973704518474</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-6.9483849117699323E-3</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="10"/>
-        <v>0.11259415354579995</v>
+        <f t="shared" si="2"/>
+        <v>0.11120776994892995</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -1128,37 +1130,37 @@
         <v>0.2</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="0"/>
-        <v>1.4591663481708329E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.4773572020215824E-2</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="4"/>
-        <v>0.31259415354579995</v>
+        <f t="shared" si="5"/>
+        <v>0.31120776994892996</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="5"/>
-        <v>1.4591663481708329E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.4773572020215824E-2</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="6"/>
-        <v>1.9290739630824748E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9444606920287585E-2</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="7"/>
-        <v>1.2342354719054816E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.2496222008517653E-2</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="11"/>
-        <v>-2.6634580579558607E-2</v>
+        <v>6.2481110042588286E-2</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8346354174832692E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="D15" s="2">
@@ -1168,19 +1170,19 @@
         <v>2.7396509684666173E-5</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5532725130818333E-2</v>
       </c>
       <c r="G15" s="2">
         <v>0.85174519958973172</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8.9412306542571776E-3</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="10"/>
-        <v>0.16108778880110625</v>
+        <f t="shared" si="2"/>
+        <v>0.16100831776568389</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
@@ -1191,37 +1193,37 @@
         <v>0.5</v>
       </c>
       <c r="L15" s="8">
-        <f>K15*D15/G15</f>
-        <v>3.2583294069558275E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.2599376643136536E-2</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="4"/>
-        <v>0.66108778880110619</v>
+        <f t="shared" si="5"/>
+        <v>0.66100831776568392</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="5"/>
-        <v>3.2583294069558275E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.2599376643136536E-2</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="6"/>
-        <v>3.669389496482401E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.6707593219666344E-2</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="7"/>
-        <v>2.7752664310566836E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.7766362565409167E-2</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="11"/>
-        <v>-3.358296549132854E-2</v>
+        <v>5.5532725130818347E-2</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9088294112462205E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="D16" s="2">
@@ -1231,18 +1233,18 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.6591494476561156E-2</v>
       </c>
       <c r="G16" s="2">
         <v>0.8572066337910309</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-9.1080769372571951E-3</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.19548797563982859</v>
       </c>
       <c r="J16">
@@ -1253,38 +1255,38 @@
         <f t="shared" ref="K16:K54" si="12">$L$1</f>
         <v>0.5</v>
       </c>
-      <c r="L16" s="9">
-        <f t="shared" ref="L16:L54" si="13">K16*D16/G16</f>
+      <c r="L16" s="8">
+        <f t="shared" si="4"/>
         <v>2.7176349692085554E-2</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69548797563982856</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7176349692085554E-2</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.240382417553777E-2</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3295747238280578E-2</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="11"/>
-        <v>-4.252419614558571E-2</v>
+        <v>4.659149447656117E-2</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146859E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="D17" s="2">
@@ -1294,18 +1296,18 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.7483417539303961E-2</v>
       </c>
       <c r="G17" s="2">
         <v>0.87160506012495131</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.0344799107912814E-3</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>5.4276798764626738E-2</v>
       </c>
       <c r="J17">
@@ -1316,38 +1318,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L17" s="9">
-        <f t="shared" si="13"/>
+      <c r="L17" s="8">
+        <f t="shared" si="4"/>
         <v>2.1502524052539589E-2</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55427679876462677</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1502524052539589E-2</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0776188680443262E-2</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.874170876965198E-2</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="11"/>
-        <v>-5.1632273082842906E-2</v>
+        <v>3.7483417539303975E-2</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146859E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="D18" s="2">
@@ -1357,18 +1359,18 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5448937628512679E-2</v>
       </c>
       <c r="G18" s="2">
         <v>0.872396293157368</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.9963565960997108E-3</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.11273558147156763</v>
       </c>
       <c r="J18">
@@ -1379,38 +1381,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L18" s="9">
-        <f t="shared" si="13"/>
+      <c r="L18" s="8">
+        <f t="shared" si="4"/>
         <v>2.0316992350011161E-2</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.61273558147156759</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0316992350011161E-2</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.172082541035605E-2</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.772446881425634E-2</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="11"/>
-        <v>-5.3666752993634187E-2</v>
+        <v>3.54489376285127E-2</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146859E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="D19" s="2">
@@ -1420,18 +1422,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1452581032412968E-2</v>
       </c>
       <c r="G19" s="2">
         <v>0.87526727117587033</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.7056329344370689E-3</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>8.6022604365880842E-2</v>
       </c>
       <c r="J19">
@@ -1442,38 +1444,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L19" s="9">
-        <f t="shared" si="13"/>
+      <c r="L19" s="8">
+        <f t="shared" si="4"/>
         <v>1.7967415250291642E-2</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58602260436588083</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7967415250291642E-2</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8431923450643553E-2</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5726290516206484E-2</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="11"/>
-        <v>-5.7663109589733905E-2</v>
+        <v>3.1452581032412982E-2</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146873E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="D20" s="2">
@@ -1483,18 +1485,18 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.87469480979759E-2</v>
       </c>
       <c r="G20" s="2">
         <v>0.8842448828748608</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.1069565216886507E-3</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7.3293224536659721E-2</v>
       </c>
       <c r="J20">
@@ -1505,38 +1507,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L20" s="9">
-        <f t="shared" si="13"/>
+      <c r="L20" s="8">
+        <f t="shared" si="4"/>
         <v>1.6255083096728646E-2</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57329322453665976</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6255083096728646E-2</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.64804305706766E-2</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4373474048987952E-2</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" si="11"/>
-        <v>-6.0368742524170974E-2</v>
+        <v>2.8746948097975913E-2</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146873E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="D21" s="2">
@@ -1546,18 +1548,18 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6639991576287249E-2</v>
       </c>
       <c r="G21" s="2">
         <v>0.88620995207302833</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-9.8260779730133946E-4</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3.6884688739015105E-2</v>
       </c>
       <c r="J21">
@@ -1568,38 +1570,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L21" s="9">
-        <f t="shared" si="13"/>
+      <c r="L21" s="8">
+        <f t="shared" si="4"/>
         <v>1.5030293619458233E-2</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.53688468873901507</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5030293619458233E-2</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4302603585444964E-2</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3319995788143624E-2</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" si="11"/>
-        <v>-6.2475699045859624E-2</v>
+        <v>2.6639991576287263E-2</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146873E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="D22" s="2">
@@ -1609,18 +1611,18 @@
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5657383778985909E-2</v>
       </c>
       <c r="G22" s="2">
         <v>0.88776875380322207</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.2416359228772109E-3</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>8.7368063017912653E-2</v>
       </c>
       <c r="J22">
@@ -1631,38 +1633,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L22" s="9">
-        <f t="shared" si="13"/>
+      <c r="L22" s="8">
+        <f t="shared" si="4"/>
         <v>1.4450488186855574E-2</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58736806301791267</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4450488186855574E-2</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5070327812370166E-2</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2828691889492955E-2</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" si="11"/>
-        <v>-6.3458306843160964E-2</v>
+        <v>2.5657383778985927E-2</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146873E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="D23" s="2">
@@ -1672,18 +1674,18 @@
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3415747856108698E-2</v>
       </c>
       <c r="G23" s="2">
         <v>0.89112190926265522</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.2422784683535958E-3</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>9.5759421485597795E-2</v>
       </c>
       <c r="J23">
@@ -1694,38 +1696,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L23" s="9">
-        <f t="shared" si="13"/>
+      <c r="L23" s="8">
+        <f t="shared" si="4"/>
         <v>1.3138352683688188E-2</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5957594214855978</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3138352683688188E-2</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3950152396407945E-2</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1707873928054349E-2</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" si="11"/>
-        <v>-6.5699942766038175E-2</v>
+        <v>2.3415747856108712E-2</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146873E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="D24" s="2">
@@ -1735,18 +1737,18 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1173469387755103E-2</v>
       </c>
       <c r="G24" s="2">
         <v>0.89664608545965985</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.7341750453763183E-3</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>8.1903206962351413E-2</v>
       </c>
       <c r="J24">
@@ -1757,38 +1759,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L24" s="9">
-        <f t="shared" si="13"/>
+      <c r="L24" s="8">
+        <f t="shared" si="4"/>
         <v>1.1807038323766651E-2</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58190320696235143</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1807038323766651E-2</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.232090973925387E-2</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0586734693877551E-2</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="11"/>
-        <v>-6.7942221234391767E-2</v>
+        <v>2.1173469387755117E-2</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146873E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="D25" s="2">
@@ -1798,18 +1800,18 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9439294342378784E-2</v>
       </c>
       <c r="G25" s="2">
         <v>0.89587558307270465</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.325439851058291E-4</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6.8183537309209601E-3</v>
       </c>
       <c r="J25">
@@ -1820,38 +1822,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L25" s="9">
-        <f t="shared" si="13"/>
+      <c r="L25" s="8">
+        <f t="shared" si="4"/>
         <v>1.0849327021339967E-2</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.50681835373092099</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0849327021339967E-2</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.8521911562952213E-3</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.7196471711893922E-3</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="11"/>
-        <v>-6.9676396279768085E-2</v>
+        <v>1.9439294342378795E-2</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146873E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="D26" s="2">
@@ -1861,18 +1863,18 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9306750357272955E-2</v>
       </c>
       <c r="G26" s="2">
         <v>0.90100410247158358</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.6544471129928415E-3</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.13748803210649571</v>
       </c>
       <c r="J26">
@@ -1883,38 +1885,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L26" s="9">
-        <f t="shared" si="13"/>
+      <c r="L26" s="8">
+        <f t="shared" si="4"/>
         <v>1.0714019117289126E-2</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.63748803210649574</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0714019117289126E-2</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2307822291629319E-2</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.6533751786364776E-3</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="11"/>
-        <v>-6.9808940264873914E-2</v>
+        <v>1.9306750357272966E-2</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146873E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="D27" s="2">
@@ -1924,18 +1926,18 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6652303244280114E-2</v>
       </c>
       <c r="G27" s="2">
         <v>0.90226249382070256</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.5889007876122175E-3</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>9.5416277514522668E-2</v>
       </c>
       <c r="J27">
@@ -1946,38 +1948,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L27" s="9">
-        <f t="shared" si="13"/>
+      <c r="L27" s="8">
+        <f t="shared" si="4"/>
         <v>9.2280812725377762E-3</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.59541627751452264</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2280812725377762E-3</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9150524097522744E-3</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.3261516221400569E-3</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="11"/>
-        <v>-7.2463387377866756E-2</v>
+        <v>1.6652303244280124E-2</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146873E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="D28" s="2">
@@ -1987,18 +1989,18 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5063402456667896E-2</v>
       </c>
       <c r="G28" s="2">
         <v>0.90472893439582969</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.8219868058708287E-4</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3.201127248469917E-2</v>
       </c>
       <c r="J28">
@@ -2009,38 +2011,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L28" s="9">
-        <f t="shared" si="13"/>
+      <c r="L28" s="8">
+        <f t="shared" si="4"/>
         <v>8.3248152479654634E-3</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.53201127248469915</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.3248152479654634E-3</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0138999089210301E-3</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.5317012283339481E-3</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="11"/>
-        <v>-7.4052288165478986E-2</v>
+        <v>1.5063402456667908E-2</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146887E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="D29" s="2">
@@ -2050,18 +2052,18 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4581203776080813E-2</v>
       </c>
       <c r="G29" s="2">
         <v>0.90138376287254296</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.9992532698627315E-4</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3.4285600466427667E-2</v>
       </c>
       <c r="J29">
@@ -2072,38 +2074,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L29" s="9">
-        <f t="shared" si="13"/>
+      <c r="L29" s="8">
+        <f t="shared" si="4"/>
         <v>8.0882329905817354E-3</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5342856004664277</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0882329905817354E-3</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7905272150266807E-3</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.2906018880404058E-3</v>
       </c>
       <c r="T29" s="3">
         <f t="shared" si="11"/>
-        <v>-7.4534486846066061E-2</v>
+        <v>1.4581203776080826E-2</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146873E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="D30" s="2">
@@ -2113,18 +2115,18 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.408127844909454E-2</v>
       </c>
       <c r="G30" s="2">
         <v>0.89912968601174992</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8.2045036285145756E-4</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>5.826533193115107E-2</v>
       </c>
       <c r="J30">
@@ -2135,38 +2137,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L30" s="9">
-        <f t="shared" si="13"/>
+      <c r="L30" s="8">
+        <f t="shared" si="4"/>
         <v>7.8305046914614526E-3</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55826533193115102</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8305046914614526E-3</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.8610895873987268E-3</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.040639224547271E-3</v>
       </c>
       <c r="T30" s="3">
         <f t="shared" si="11"/>
-        <v>-7.5034412173052345E-2</v>
+        <v>1.4081278449094551E-2</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146887E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="D31" s="2">
@@ -2176,18 +2178,18 @@
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3260828086243083E-2</v>
       </c>
       <c r="G31" s="2">
         <v>0.89782498277813949</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.3763051557032164E-4</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>1.7919734274878502E-2</v>
       </c>
       <c r="J31">
@@ -2198,38 +2200,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L31" s="9">
-        <f t="shared" si="13"/>
+      <c r="L31" s="8">
+        <f t="shared" si="4"/>
         <v>7.3849738760944856E-3</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.51791973427487847</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.3849738760944856E-3</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.868044558691863E-3</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.6304140431215413E-3</v>
       </c>
       <c r="T31" s="3">
         <f t="shared" si="11"/>
-        <v>-7.5854862535903803E-2</v>
+        <v>1.3260828086243093E-2</v>
       </c>
       <c r="U31" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146887E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="D32" s="2">
@@ -2239,18 +2241,18 @@
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3023197570672761E-2</v>
       </c>
       <c r="G32" s="2">
         <v>0.89521120005757915</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.6538340949904156E-4</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2.0377745792374721E-2</v>
       </c>
       <c r="J32">
@@ -2261,38 +2263,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L32" s="9">
-        <f t="shared" si="13"/>
+      <c r="L32" s="8">
+        <f t="shared" si="4"/>
         <v>7.2738129113192069E-3</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52037774579237472</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2738129113192069E-3</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.7769821948354221E-3</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.5115987853363805E-3</v>
       </c>
       <c r="T32" s="3">
         <f t="shared" si="11"/>
-        <v>-7.6092493051474128E-2</v>
+        <v>1.302319757067277E-2</v>
       </c>
       <c r="U32" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146887E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="D33" s="2">
@@ -2302,18 +2304,18 @@
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2757814161173719E-2</v>
       </c>
       <c r="G33" s="2">
         <v>0.89575043285440903</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.6684469074229047E-3</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.13077843009349868</v>
       </c>
       <c r="J33">
@@ -2324,38 +2326,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L33" s="9">
-        <f t="shared" si="13"/>
+      <c r="L33" s="8">
+        <f t="shared" si="4"/>
         <v>7.1212994675980881E-3</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.63077843009349865</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.1212994675980881E-3</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0473539880097644E-3</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.3789070805868597E-3</v>
       </c>
       <c r="T33" s="3">
         <f t="shared" si="11"/>
-        <v>-7.6357876460973167E-2</v>
+        <v>1.2757814161173726E-2</v>
       </c>
       <c r="U33" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146887E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="D34" s="2">
@@ -2365,18 +2367,18 @@
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1089367253750815E-2</v>
       </c>
       <c r="G34" s="2">
         <v>0.89236790606653615</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8.080273269494842E-4</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7.2865052483150547E-2</v>
       </c>
       <c r="J34">
@@ -2387,38 +2389,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L34" s="9">
-        <f t="shared" si="13"/>
+      <c r="L34" s="8">
+        <f t="shared" si="4"/>
         <v>6.2134502923976605E-3</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57286505248315056</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2134502923976605E-3</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.3527109538248916E-3</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5446836268754074E-3</v>
       </c>
       <c r="T34" s="3">
         <f t="shared" si="11"/>
-        <v>-7.8026323368396072E-2</v>
+        <v>1.1089367253750822E-2</v>
       </c>
       <c r="U34" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146887E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="D35" s="2">
@@ -2428,18 +2430,18 @@
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0281339926801331E-2</v>
       </c>
       <c r="G35" s="2">
         <v>0.8893917805157433</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.4039564591593145E-4</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7.2013536288774271E-2</v>
       </c>
       <c r="J35">
@@ -2450,38 +2452,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L35" s="9">
-        <f t="shared" si="13"/>
+      <c r="L35" s="8">
+        <f t="shared" si="4"/>
         <v>5.779983665263555E-3</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57201353628877427</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.779983665263555E-3</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.8810656093165967E-3</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.1406699634006653E-3</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="11"/>
-        <v>-7.8834350695345556E-2</v>
+        <v>1.0281339926801338E-2</v>
       </c>
       <c r="U35" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146887E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="D36" s="2">
@@ -2491,18 +2493,18 @@
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.5409442808853991E-3</v>
       </c>
       <c r="G36" s="2">
         <v>0.88398211754443357</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-6.3668548554720109E-4</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6.6731915290895782E-2</v>
       </c>
       <c r="J36">
@@ -2513,38 +2515,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L36" s="9">
-        <f t="shared" si="13"/>
+      <c r="L36" s="8">
+        <f t="shared" si="4"/>
         <v>5.3965708646848401E-3</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.56673191529089584</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3965708646848401E-3</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.4071576259899015E-3</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7704721404426996E-3</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="11"/>
-        <v>-7.9574746341261493E-2</v>
+        <v>9.5409442808854061E-3</v>
       </c>
       <c r="U36" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146887E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="D37" s="2">
@@ -2554,18 +2556,18 @@
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.904258795338198E-3</v>
       </c>
       <c r="G37" s="2">
         <v>0.88152162073848161</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.7176520170613507E-3</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.19290230175706741</v>
       </c>
       <c r="J37">
@@ -2576,38 +2578,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L37" s="9">
-        <f t="shared" si="13"/>
+      <c r="L37" s="8">
+        <f t="shared" si="4"/>
         <v>5.0505050505050501E-3</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69290230175706746</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0505050505050501E-3</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1697814147304497E-3</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.452129397669099E-3</v>
       </c>
       <c r="T37" s="3">
         <f t="shared" si="11"/>
-        <v>-8.0211431826808705E-2</v>
+        <v>8.9042587953382032E-3</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146901E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="D38" s="2">
@@ -2617,19 +2619,19 @@
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.1866067782768474E-3</v>
       </c>
       <c r="G38" s="2">
         <v>0.87390771743568796</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.6036105344182737E-4</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="10"/>
-        <v>-5.0143421584036098E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
@@ -2639,38 +2641,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L38" s="9">
-        <f t="shared" si="13"/>
+      <c r="L38" s="8">
+        <f t="shared" si="4"/>
         <v>4.1117652555835906E-3</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="4"/>
-        <v>0.44985657841596388</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5241212129142304E-3</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="6"/>
-        <v>3.2329423356965963E-3</v>
+        <f t="shared" si="7"/>
+        <v>3.5933033891384237E-3</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9536644425802511E-3</v>
       </c>
       <c r="T38" s="3">
         <f t="shared" si="11"/>
-        <v>-8.1929083843870043E-2</v>
+        <v>7.1866067782768517E-3</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="9"/>
-        <v>8.9115690622146887E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="D39" s="2">
@@ -2680,18 +2682,18 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5469678317186747E-3</v>
       </c>
       <c r="G39" s="2">
         <v>0.87025638280790019</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.9218762801152361E-4</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.10496766988751273</v>
       </c>
       <c r="J39">
@@ -2702,38 +2704,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L39" s="9">
-        <f t="shared" si="13"/>
+      <c r="L39" s="8">
+        <f t="shared" si="4"/>
         <v>4.3360600282920233E-3</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60496766988751272</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3360600282920233E-3</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.565671543870861E-3</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7734839158593374E-3</v>
       </c>
       <c r="T39" s="3">
         <f t="shared" si="11"/>
-        <v>-8.1208361736986395E-2</v>
+        <v>7.54696783171868E-3</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8755329568705077E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="D40" s="2">
@@ -2743,19 +2745,19 @@
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.7547802037071511E-3</v>
       </c>
       <c r="G40" s="2">
         <v>0.86080897800707401</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.7760649672934224E-4</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="10"/>
-        <v>-4.1097783844541165E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
@@ -2765,38 +2767,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L40" s="9">
-        <f t="shared" si="13"/>
+      <c r="L40" s="8">
+        <f t="shared" si="4"/>
         <v>3.9235070592233308E-3</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="4"/>
-        <v>0.45890221615545884</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2460019492883147E-3</v>
       </c>
       <c r="Q40" s="4">
-        <f t="shared" si="6"/>
-        <v>3.0997836051242333E-3</v>
+        <f t="shared" si="7"/>
+        <v>3.3773901018535756E-3</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6549965985829182E-3</v>
       </c>
       <c r="T40" s="3">
         <f t="shared" si="11"/>
-        <v>-8.2000549364997913E-2</v>
+        <v>6.7547802037071563E-3</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8755329568705063E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="D41" s="2">
@@ -2806,18 +2808,18 @@
         <v>0</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.0323867004364934E-3</v>
       </c>
       <c r="G41" s="2">
         <v>0.84644608503529672</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-9.936403551076417E-4</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.14129489708607285</v>
       </c>
       <c r="J41">
@@ -2828,38 +2830,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L41" s="9">
-        <f t="shared" si="13"/>
+      <c r="L41" s="8">
+        <f t="shared" si="4"/>
         <v>4.1540665287283143E-3</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.64129489708607279</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1540665287283143E-3</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5098337053258884E-3</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5161933502182467E-3</v>
       </c>
       <c r="T41" s="3">
         <f t="shared" si="11"/>
-        <v>-8.1445336371539237E-2</v>
+        <v>7.0323867004364986E-3</v>
       </c>
       <c r="U41" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8477723071975725E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="D42" s="2">
@@ -2869,18 +2871,18 @@
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0387463453288517E-3</v>
       </c>
       <c r="G42" s="2">
         <v>0.83411208569008388</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.4349246186183655E-3</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.23761962112025486</v>
       </c>
       <c r="J42">
@@ -2891,38 +2893,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L42" s="9">
-        <f t="shared" si="13"/>
+      <c r="L42" s="8">
+        <f t="shared" si="4"/>
         <v>3.619865033086549E-3</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73761962112025481</v>
       </c>
       <c r="O42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.619865033086549E-3</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4542977912827913E-3</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.0193731726644258E-3</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="11"/>
-        <v>-8.2438976726646879E-2</v>
+        <v>6.0387463453288577E-3</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8477723071975725E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="D43" s="2">
@@ -2932,18 +2934,18 @@
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.6038217267104862E-3</v>
       </c>
       <c r="G43" s="2">
         <v>0.82497157278753086</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8.5923600643662834E-4</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.18663537761497295</v>
       </c>
       <c r="J43">
@@ -2954,38 +2956,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L43" s="9">
-        <f t="shared" si="13"/>
+      <c r="L43" s="8">
+        <f t="shared" si="4"/>
         <v>2.7902911315807167E-3</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68663537761497295</v>
       </c>
       <c r="O43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7902911315807167E-3</v>
       </c>
       <c r="Q43" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1611468697918714E-3</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3019108633552431E-3</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="11"/>
-        <v>-8.3873901345265234E-2</v>
+        <v>4.6038217267104923E-3</v>
       </c>
       <c r="U43" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8477723071975725E-2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="D44" s="2">
@@ -2995,18 +2997,18 @@
         <v>0</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.7445857202738578E-3</v>
       </c>
       <c r="G44" s="2">
         <v>0.80681849937124495</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8.9525153407859137E-4</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.2390789264701671</v>
       </c>
       <c r="J44">
@@ -3017,38 +3019,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L44" s="9">
-        <f t="shared" si="13"/>
+      <c r="L44" s="8">
+        <f t="shared" si="4"/>
         <v>2.3205874203380437E-3</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73907892647016715</v>
       </c>
       <c r="O44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3205874203380437E-3</v>
       </c>
       <c r="Q44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7675443942155203E-3</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8722928601369289E-3</v>
       </c>
       <c r="T44" s="3">
         <f t="shared" si="11"/>
-        <v>-8.4733137351701862E-2</v>
+        <v>3.7445857202738639E-3</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8477723071975725E-2</v>
+        <f t="shared" si="10"/>
+        <v>-6.0715321659188248E-18</v>
       </c>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="D45" s="2">
@@ -3058,19 +3060,19 @@
         <v>0</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8493341861952665E-3</v>
       </c>
       <c r="G45" s="2">
         <v>0.77568761993370938</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.5300643690950708E-5</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="10"/>
-        <v>-2.291786060312815E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
@@ -3080,38 +3082,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L45" s="9">
-        <f t="shared" si="13"/>
+      <c r="L45" s="8">
+        <f t="shared" si="4"/>
         <v>1.8366505491210314E-3</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="4"/>
-        <v>0.47708213939687183</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9208347516438606E-3</v>
       </c>
       <c r="Q45" s="4">
-        <f t="shared" si="6"/>
-        <v>1.3593664494066825E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.4246670930976332E-3</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4899677367885839E-3</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" si="11"/>
-        <v>-8.5628388885780449E-2</v>
+        <v>2.8493341861952725E-3</v>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8477723071975711E-2</v>
+        <f t="shared" si="10"/>
+        <v>-6.0715321659188248E-18</v>
       </c>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="D46" s="2">
@@ -3121,18 +3123,18 @@
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9146348298862172E-3</v>
       </c>
       <c r="G46" s="2">
         <v>0.74177456420604226</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.2368747770780319E-3</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.42436697880479168</v>
       </c>
       <c r="J46">
@@ -3143,38 +3145,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L46" s="9">
-        <f t="shared" si="13"/>
+      <c r="L46" s="8">
+        <f t="shared" si="4"/>
         <v>1.9646365422396855E-3</v>
       </c>
       <c r="N46" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.92436697880479168</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9646365422396855E-3</v>
       </c>
       <c r="Q46" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6941921920211405E-3</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4573174149431084E-3</v>
       </c>
       <c r="T46" s="3">
         <f t="shared" si="11"/>
-        <v>-8.5497787598398545E-2</v>
+        <v>2.9146348298862233E-3</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8412422428284759E-2</v>
+        <f t="shared" si="10"/>
+        <v>-6.0715321659188248E-18</v>
       </c>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="D47" s="2">
@@ -3184,19 +3186,19 @@
         <v>0</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6777600528081853E-3</v>
       </c>
       <c r="G47" s="2">
         <v>0.66403542549095107</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.6946637604368549E-4</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="10"/>
-        <v>-0.22021407377371011</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
@@ -3206,38 +3208,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L47" s="9">
-        <f t="shared" si="13"/>
+      <c r="L47" s="8">
+        <f t="shared" si="4"/>
         <v>1.2633061342832291E-3</v>
       </c>
       <c r="N47" s="6">
-        <f t="shared" si="4"/>
-        <v>0.27978592622628989</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8197017147908842E-3</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="6"/>
-        <v>4.6941365036040714E-4</v>
+        <f t="shared" si="7"/>
+        <v>8.3888002640409264E-4</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2083464024477781E-3</v>
       </c>
       <c r="T47" s="3">
         <f t="shared" si="11"/>
-        <v>-8.6734662375476584E-2</v>
+        <v>1.6777600528081909E-3</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8412422428284773E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.6378512969246231E-18</v>
       </c>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="D48" s="2">
@@ -3247,18 +3249,18 @@
         <v>0</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0472264288518708E-3</v>
       </c>
       <c r="G48" s="2">
         <v>0.42843120758315106</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.0231323490398291E-4</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>4.9976511372687979E-2</v>
       </c>
       <c r="J48">
@@ -3269,38 +3271,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L48" s="9">
-        <f t="shared" si="13"/>
+      <c r="L48" s="8">
+        <f t="shared" si="4"/>
         <v>2.3892125417293974E-3</v>
       </c>
       <c r="N48" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54997651137268799</v>
       </c>
       <c r="O48" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3892125417293974E-3</v>
       </c>
       <c r="Q48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1259264493299183E-3</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0236132144259354E-3</v>
       </c>
       <c r="T48" s="3">
         <f t="shared" si="11"/>
-        <v>-8.5995729623389208E-2</v>
+        <v>2.0472264288518764E-3</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8042956052241078E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.6378512969246231E-18</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="D49" s="2">
@@ -3310,18 +3312,18 @@
         <v>0</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9449131939478879E-3</v>
       </c>
       <c r="G49" s="2">
         <v>0.24171266767725882</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.0684071632557093E-4</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.10634958771898435</v>
       </c>
       <c r="J49">
@@ -3332,38 +3334,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L49" s="9">
-        <f t="shared" si="13"/>
+      <c r="L49" s="8">
+        <f t="shared" si="4"/>
         <v>4.023192521595078E-3</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6063495877189844</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.023192521595078E-3</v>
       </c>
       <c r="Q49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.179297313299515E-3</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.7245659697394403E-4</v>
       </c>
       <c r="T49" s="3">
         <f t="shared" si="11"/>
-        <v>-8.6098042858293186E-2</v>
+        <v>1.9449131939478935E-3</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8042956052241078E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.6378512969246231E-18</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="D50" s="2">
@@ -3373,18 +3375,18 @@
         <v>0</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7380724776223169E-3</v>
       </c>
       <c r="G50" s="2">
         <v>0.14805480721879435</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.8725354364359233E-4</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.22280632633534084</v>
       </c>
       <c r="J50">
@@ -3395,38 +3397,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L50" s="9">
-        <f t="shared" si="13"/>
+      <c r="L50" s="8">
+        <f t="shared" si="4"/>
         <v>5.869692819409118E-3</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72280632633534081</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.869692819409118E-3</v>
       </c>
       <c r="Q50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2562897824547508E-3</v>
       </c>
       <c r="R50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6903623881115846E-4</v>
       </c>
       <c r="T50" s="3">
         <f t="shared" si="11"/>
-        <v>-8.6304883574618768E-2</v>
+        <v>1.7380724776223226E-3</v>
       </c>
       <c r="U50" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8042956052241078E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.6378512969246231E-18</v>
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="D51" s="2">
@@ -3436,19 +3438,19 @@
         <v>0</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3508189339787246E-3</v>
       </c>
       <c r="G51" s="2">
         <v>0.11498846175493893</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.9493979198886777E-5</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="10"/>
-        <v>-4.4042897017775889E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
@@ -3458,38 +3460,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L51" s="9">
-        <f t="shared" si="13"/>
+      <c r="L51" s="8">
+        <f t="shared" si="4"/>
         <v>5.8737151248164461E-3</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="4"/>
-        <v>0.45595710298222414</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.3911059855245329E-3</v>
       </c>
       <c r="Q51" s="4">
-        <f t="shared" si="6"/>
-        <v>6.1591548779047552E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.754094669893623E-4</v>
       </c>
       <c r="R51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.3490344618824908E-4</v>
       </c>
       <c r="T51" s="3">
         <f t="shared" si="11"/>
-        <v>-8.6692137118262361E-2</v>
+        <v>1.3508189339787302E-3</v>
       </c>
       <c r="U51" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8042956052241092E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.6378512969246231E-18</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="D52" s="2">
@@ -3499,19 +3501,19 @@
         <v>0</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4103129131776114E-3</v>
       </c>
       <c r="G52" s="2">
         <v>9.3521375055090353E-2</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.6509984032078559E-5</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="10"/>
-        <v>-1.8797235552745702E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
@@ -3521,38 +3523,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L52" s="9">
-        <f t="shared" si="13"/>
+      <c r="L52" s="8">
+        <f t="shared" si="4"/>
         <v>7.540056550424128E-3</v>
       </c>
       <c r="N52" s="6">
-        <f t="shared" si="4"/>
-        <v>0.48120276444725429</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8235209885428193E-3</v>
       </c>
       <c r="Q52" s="4">
-        <f t="shared" si="6"/>
-        <v>6.7864647255672713E-4</v>
+        <f t="shared" si="7"/>
+        <v>7.0515645658880569E-4</v>
       </c>
       <c r="R52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.3166644062088425E-4</v>
       </c>
       <c r="T52" s="3">
         <f t="shared" si="11"/>
-        <v>-8.6573149159864582E-2</v>
+        <v>1.4103129131776172E-3</v>
       </c>
       <c r="U52" s="3">
-        <f t="shared" si="9"/>
-        <v>8.7983462073042196E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.8546917314217239E-18</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="D53" s="2">
@@ -3562,19 +3564,19 @@
         <v>0</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4368228972096899E-3</v>
       </c>
       <c r="G53" s="2">
         <v>1.1552056093565907E-2</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1733234877069954E-4</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="10"/>
-        <v>-8.1660968097431466E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
@@ -3584,38 +3586,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L53" s="9">
-        <f t="shared" si="13"/>
+      <c r="L53" s="8">
+        <f t="shared" si="4"/>
         <v>6.2189054726368161E-2</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="4"/>
-        <v>0.41833903190256855</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2345891554406905E-2</v>
       </c>
       <c r="Q53" s="4">
-        <f t="shared" si="6"/>
-        <v>6.0107909983414542E-4</v>
+        <f t="shared" si="7"/>
+        <v>7.1841144860484497E-4</v>
       </c>
       <c r="R53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.3574379737554451E-4</v>
       </c>
       <c r="T53" s="3">
         <f t="shared" si="11"/>
-        <v>-8.6520129191800424E-2</v>
+        <v>1.4368228972096958E-3</v>
       </c>
       <c r="U53" s="3">
-        <f t="shared" si="9"/>
-        <v>8.795695208901011E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.8546917314217239E-18</v>
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="D54" s="2">
@@ -3625,18 +3627,18 @@
         <v>0</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5541552459803895E-3</v>
       </c>
       <c r="G54" s="2">
         <v>1.921501031393936E-3</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8.6513914942597681E-5</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>5.5666198834610714E-2</v>
       </c>
       <c r="J54">
@@ -3647,38 +3649,38 @@
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="L54" s="9">
-        <f t="shared" si="13"/>
+      <c r="L54" s="8">
+        <f t="shared" si="4"/>
         <v>0.40441176470588236</v>
       </c>
       <c r="N54" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55566619883461077</v>
       </c>
       <c r="O54" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40441176470588236</v>
       </c>
       <c r="Q54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.6359153793279253E-4</v>
       </c>
       <c r="R54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.7707762299019474E-4</v>
       </c>
       <c r="T54" s="3">
         <f t="shared" si="11"/>
-        <v>-8.6285464494259029E-2</v>
+        <v>1.5541552459803951E-3</v>
       </c>
       <c r="U54" s="3">
-        <f t="shared" si="9"/>
-        <v>8.7839619740239419E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.6378512969246231E-18</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="D55" s="2">
@@ -3688,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4676413310377918E-3</v>
       </c>
       <c r="G55" s="2">
@@ -3697,11 +3699,11 @@
       <c r="H55" s="3"/>
       <c r="T55" s="3">
         <f t="shared" si="11"/>
-        <v>-8.6371978409201633E-2</v>
+        <v>1.4676413310377974E-3</v>
       </c>
       <c r="U55" s="3">
-        <f t="shared" si="9"/>
-        <v>8.7839619740239419E-2</v>
+        <f t="shared" si="10"/>
+        <v>-5.6378512969246231E-18</v>
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.2">
@@ -4484,7 +4486,7 @@
   <dimension ref="B1:U310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4493,6 +4495,7 @@
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="7" width="9.1640625" customWidth="1"/>
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.2">
@@ -4589,7 +4592,7 @@
         <v>5.1419529780482587E-3</v>
       </c>
       <c r="I5" s="3">
-        <f>IF(H5&lt;0,-H5/D5,0)</f>
+        <f>IF(H5&lt;0,-H5/F5,0)</f>
         <v>0</v>
       </c>
       <c r="J5">
@@ -4600,24 +4603,24 @@
         <v>0.2</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" ref="L5:L14" si="0">K5*D5/G5</f>
-        <v>9.1030046823519187E-2</v>
-      </c>
-      <c r="N5">
+        <f>K5*F5/G5</f>
+        <v>9.2196956226091462E-2</v>
+      </c>
+      <c r="N5" s="10">
         <f>I5+K5</f>
         <v>0.2</v>
       </c>
       <c r="O5" s="4">
         <f>L5+J5</f>
-        <v>9.9308027758787137E-2</v>
+        <v>0.10047493716135941</v>
       </c>
       <c r="Q5" s="6">
-        <f>N5*D5</f>
-        <v>5.6544249620323075E-2</v>
+        <f>N5*F5</f>
+        <v>5.726908739472595E-2</v>
       </c>
       <c r="R5" s="7">
         <f>O5*G5</f>
-        <v>6.1686202598371334E-2</v>
+        <v>6.2411040372774201E-2</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
@@ -4632,19 +4635,19 @@
         <v>1.7872509432713313E-3</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:F55" si="1">E6+D6</f>
+        <f t="shared" ref="F6:F55" si="0">E6+D6</f>
         <v>0.291487389951678</v>
       </c>
       <c r="G6" s="2">
         <v>0.62221009543748129</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:H54" si="2">F7-F6</f>
+        <f t="shared" ref="H6:H54" si="1">F7-F6</f>
         <v>-1.9605906549188368E-2</v>
       </c>
       <c r="I6" s="3">
-        <f>-H6/D6</f>
-        <v>6.7676552093816678E-2</v>
+        <f t="shared" ref="I6:I54" si="2">IF(H6&lt;0,-H6/F6,0)</f>
+        <v>6.7261594240624209E-2</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J54" si="3">IF(H6&gt;0,H6/G6,0)</f>
@@ -4654,37 +4657,37 @@
         <v>0.2</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" si="0"/>
-        <v>9.3119716678565306E-2</v>
+        <f t="shared" ref="L6:L54" si="4">K6*F6/G6</f>
+        <v>9.3694201392451118E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N54" si="4">I6+K6</f>
-        <v>0.26767655209381669</v>
+        <f t="shared" ref="N6:N54" si="5">I6+K6</f>
+        <v>0.26726159424062423</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" ref="O6:O54" si="5">L6+J6</f>
-        <v>9.3119716678565306E-2</v>
+        <f t="shared" ref="O6:O54" si="6">L6+J6</f>
+        <v>9.3694201392451118E-2</v>
       </c>
       <c r="Q6" s="6">
-        <f>N6*D6</f>
-        <v>7.7545934350869705E-2</v>
+        <f t="shared" ref="Q6:Q54" si="7">N6*F6</f>
+        <v>7.7903384539523973E-2</v>
       </c>
       <c r="R6" s="7">
-        <f t="shared" ref="R6:R54" si="6">O6*G6</f>
-        <v>5.7940027801681337E-2</v>
+        <f t="shared" ref="R6:R54" si="8">O6*G6</f>
+        <v>5.8297477990335606E-2</v>
       </c>
       <c r="T6" s="3">
-        <f>D5+R5-Q5</f>
-        <v>0.28786320107966362</v>
+        <f>F5+R5-Q5</f>
+        <v>0.29148738995167794</v>
       </c>
       <c r="U6" s="3">
         <f>D6-T6</f>
-        <v>1.8369379287430654E-3</v>
+        <v>-1.7872509432712569E-3</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C55" si="7">1+C6</f>
+        <f t="shared" ref="C7:C55" si="9">1+C6</f>
         <v>22</v>
       </c>
       <c r="D7" s="2">
@@ -4694,19 +4697,19 @@
         <v>6.8075726141078835E-4</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.27188148340248963</v>
       </c>
       <c r="G7" s="2">
         <v>0.63654630614394192</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.0421783018683766E-2</v>
       </c>
       <c r="I7" s="3">
-        <f>-H7/D7</f>
-        <v>0.14904747341146987</v>
+        <f t="shared" si="2"/>
+        <v>0.14867427716231749</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
@@ -4716,37 +4719,37 @@
         <v>0.2</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="0"/>
-        <v>8.5210054169963981E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.5423945054206057E-2</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
-        <v>0.34904747341146991</v>
+        <f t="shared" si="5"/>
+        <v>0.34867427716231747</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="5"/>
-        <v>8.5210054169963981E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.5423945054206057E-2</v>
       </c>
       <c r="Q7" s="6">
-        <f>N7*D7</f>
-        <v>9.4661928246899535E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.4798079699181692E-2</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" si="6"/>
-        <v>5.4240145228215769E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.4376296680497919E-2</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" ref="T7:T38" si="8">T6+R6-Q6</f>
-        <v>0.26825729453047525</v>
+        <f t="shared" ref="T7:T38" si="10">T6+R6-Q6</f>
+        <v>0.27188148340248963</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" ref="U7:U55" si="9">D7-T7</f>
-        <v>2.9434316106035641E-3</v>
+        <f t="shared" ref="U7:U55" si="11">D7-T7</f>
+        <v>-6.8075726141081372E-4</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="D8" s="2">
@@ -4756,19 +4759,19 @@
         <v>5.5713755107094222E-4</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.23145970038380587</v>
       </c>
       <c r="G8" s="2">
         <v>0.6691448258778383</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.7472821004053367E-2</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" ref="I8:I54" si="10">-H8/D8</f>
-        <v>0.20559676957090567</v>
+        <f t="shared" si="2"/>
+        <v>0.20510188566447662</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -4778,37 +4781,37 @@
         <v>0.2</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" si="0"/>
-        <v>6.9014226488210012E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.9180748750514012E-2</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
-        <v>0.40559676957090568</v>
+        <f t="shared" si="5"/>
+        <v>0.40510188566447664</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="5"/>
-        <v>6.9014226488210012E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.9180748750514012E-2</v>
       </c>
       <c r="Q8" s="6">
-        <f>N8*D8</f>
-        <v>9.365333357060035E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.3764761080814538E-2</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="6"/>
-        <v>4.6180512566546983E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.6291940076761177E-2</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="8"/>
-        <v>0.22783551151179152</v>
+        <f t="shared" si="10"/>
+        <v>0.23145970038380587</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="9"/>
-        <v>3.0670513209433981E-3</v>
+        <f t="shared" si="11"/>
+        <v>-5.5713755107095198E-4</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="D9" s="2">
@@ -4818,19 +4821,19 @@
         <v>2.6837632324437156E-4</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1839868793797525</v>
       </c>
       <c r="G9" s="2">
         <v>0.71281185873338304</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.2847240141691242E-2</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="10"/>
-        <v>0.17879113750229114</v>
+        <f t="shared" si="2"/>
+        <v>0.17853034005698798</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
@@ -4840,37 +4843,37 @@
         <v>0.2</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="0"/>
-        <v>5.154754394321192E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.1622844689111755E-2</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
-        <v>0.37879113750229115</v>
+        <f t="shared" si="5"/>
+        <v>0.37853034005698799</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="5"/>
-        <v>5.154754394321192E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.1622844689111755E-2</v>
       </c>
       <c r="Q9" s="6">
-        <f>N9*D9</f>
-        <v>6.9590940752992866E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.9644616017641742E-2</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="6"/>
-        <v>3.6743700611301632E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.67973758759505E-2</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="8"/>
-        <v>0.18036269050773812</v>
+        <f t="shared" si="10"/>
+        <v>0.1839868793797525</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3558125487700152E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.6837632324436256E-4</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="D10" s="2">
@@ -4880,19 +4883,19 @@
         <v>2.9716798906421799E-4</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.15113963923806126</v>
       </c>
       <c r="G10" s="2">
         <v>0.73584790367074671</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.7129389029314027E-2</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="10"/>
-        <v>0.17985245670320063</v>
+        <f t="shared" si="2"/>
+        <v>0.17949883409859349</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -4902,37 +4905,37 @@
         <v>0.2</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="0"/>
-        <v>4.0998274370702331E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.1079043232740746E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
-        <v>0.37985245670320067</v>
+        <f t="shared" si="5"/>
+        <v>0.37949883409859353</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="5"/>
-        <v>4.0998274370702331E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.1079043232740746E-2</v>
       </c>
       <c r="Q10" s="6">
-        <f>N10*D10</f>
-        <v>5.7297883279113442E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.7357316876926287E-2</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="6"/>
-        <v>3.0168494249799411E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.0227927847612253E-2</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="8"/>
-        <v>0.14751545036604691</v>
+        <f t="shared" si="10"/>
+        <v>0.15113963923806126</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3270208829501435E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.9716798906420649E-4</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="D11" s="2">
@@ -4942,19 +4945,19 @@
         <v>1.7275632720048371E-4</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.12401025020874723</v>
       </c>
       <c r="G11" s="2">
         <v>0.75243153059975243</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.4039193768805117E-2</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="10"/>
-        <v>0.19411886509750537</v>
+        <f t="shared" si="2"/>
+        <v>0.19384844178880206</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
@@ -4964,37 +4967,37 @@
         <v>0.2</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2916614693921091E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.2962534175010036E-2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
-        <v>0.39411886509750538</v>
+        <f t="shared" si="5"/>
+        <v>0.39384844178880207</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="5"/>
-        <v>3.2916614693921091E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.2962534175010036E-2</v>
       </c>
       <c r="Q11" s="6">
-        <f>N11*D11</f>
-        <v>4.8806692545114466E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.884124381055456E-2</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" si="6"/>
-        <v>2.4767498776309349E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.480205004174945E-2</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="8"/>
-        <v>0.12038606133673288</v>
+        <f t="shared" si="10"/>
+        <v>0.12401025020874722</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="9"/>
-        <v>3.451432544813865E-3</v>
+        <f t="shared" si="11"/>
+        <v>-1.7275632720047118E-4</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="D12" s="2">
@@ -5004,19 +5007,19 @@
         <v>1.1577424023154849E-4</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9971056439942113E-2</v>
       </c>
       <c r="G12" s="2">
         <v>0.7704949307191028</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.123648853870754E-2</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="10"/>
-        <v>0.11252773304705666</v>
+        <f t="shared" si="2"/>
+        <v>0.11239741720102649</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -5026,37 +5029,37 @@
         <v>0.2</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" si="0"/>
-        <v>2.591977655362785E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5949828468472633E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
-        <v>0.31252773304705667</v>
+        <f t="shared" si="5"/>
+        <v>0.31239741720102648</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="5"/>
-        <v>2.591977655362785E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.5949828468472633E-2</v>
       </c>
       <c r="Q12" s="6">
-        <f>N12*D12</f>
-        <v>3.1207544978649655E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.1230699826695962E-2</v>
       </c>
       <c r="R12" s="7">
-        <f t="shared" si="6"/>
-        <v>1.9971056439942115E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.9994211287988423E-2</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="8"/>
-        <v>9.6346867567927763E-2</v>
+        <f t="shared" si="10"/>
+        <v>9.9971056439942099E-2</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" si="9"/>
-        <v>3.508414631782808E-3</v>
+        <f t="shared" si="11"/>
+        <v>-1.1577424023152816E-4</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="D13" s="2">
@@ -5066,19 +5069,19 @@
         <v>1.4288980338363056E-4</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.8734567901234573E-2</v>
       </c>
       <c r="G13" s="2">
         <v>0.77306199175464108</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-9.901472572933348E-3</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="10"/>
-        <v>0.11176526718454313</v>
+        <f t="shared" si="2"/>
+        <v>0.11158529090888364</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -5088,37 +5091,37 @@
         <v>0.2</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="0"/>
-        <v>2.2919682779067137E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.2956650009355959E-2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
-        <v>0.31176526718454312</v>
+        <f t="shared" si="5"/>
+        <v>0.31158529090888365</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="5"/>
-        <v>2.2919682779067137E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.2956650009355959E-2</v>
       </c>
       <c r="Q13" s="6">
-        <f>N13*D13</f>
-        <v>2.7619808192503537E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.7648386153180264E-2</v>
       </c>
       <c r="R13" s="7">
-        <f t="shared" si="6"/>
-        <v>1.7718335619570189E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.7746913580246916E-2</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="8"/>
-        <v>8.5110379029220223E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.873456790123456E-2</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="9"/>
-        <v>3.4812990686307194E-3</v>
+        <f t="shared" si="11"/>
+        <v>-1.4288980338361679E-4</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="D14" s="2">
@@ -5128,19 +5131,19 @@
         <v>1.7486083991490105E-4</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.8833095328301225E-2</v>
       </c>
       <c r="G14" s="2">
         <v>0.78159688060854493</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.0018954560210985E-2</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="10"/>
-        <v>0.12737324484050372</v>
+        <f t="shared" si="2"/>
+        <v>0.127090716386144</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -5150,37 +5153,37 @@
         <v>0.2</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0127571242900474E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.0172315751035862E-2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
-        <v>0.32737324484050373</v>
+        <f t="shared" si="5"/>
+        <v>0.32709071638614401</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="5"/>
-        <v>2.0127571242900474E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.0172315751035862E-2</v>
       </c>
       <c r="Q14" s="6">
-        <f>N14*D14</f>
-        <v>2.575060145788825E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.5785573625871229E-2</v>
       </c>
       <c r="R14" s="7">
-        <f t="shared" si="6"/>
-        <v>1.5731646897677264E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.5766619065660247E-2</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="8"/>
-        <v>7.5208906456286875E-2</v>
+        <f t="shared" si="10"/>
+        <v>7.8833095328301211E-2</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="9"/>
-        <v>3.4493280320994496E-3</v>
+        <f t="shared" si="11"/>
+        <v>-1.7486083991488655E-4</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="D15" s="2">
@@ -5190,18 +5193,18 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.881414076809024E-2</v>
       </c>
       <c r="G15" s="2">
         <v>0.78963757456065342</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-6.512941844674533E-3</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>9.464539950623993E-2</v>
       </c>
       <c r="J15">
@@ -5213,37 +5216,37 @@
         <v>0.5</v>
       </c>
       <c r="L15" s="8">
-        <f>K15*D15/G15</f>
+        <f t="shared" si="4"/>
         <v>4.357324358986954E-2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.59464539950623996</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.357324358986954E-2</v>
       </c>
       <c r="Q15" s="6">
-        <f>N15*D15</f>
+        <f t="shared" si="7"/>
         <v>4.0920012228719653E-2</v>
       </c>
       <c r="R15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.440707038404512E-2</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="8"/>
-        <v>6.518995189607589E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.8814140768090226E-2</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="9"/>
-        <v>3.62418887201435E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="D16" s="2">
@@ -5253,60 +5256,60 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2301198923415707E-2</v>
       </c>
       <c r="G16" s="2">
         <v>0.79580342593361886</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.9962984131345983E-3</v>
       </c>
       <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4144807518826133E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" ref="K16:K54" si="12">$L$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="4"/>
+        <v>3.9143585521968144E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>0.56414480751882612</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="6"/>
+        <v>3.9143585521968144E-2</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="7"/>
+        <v>3.5146897874842452E-2</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" si="8"/>
+        <v>3.115059946170785E-2</v>
+      </c>
+      <c r="T16" s="3">
         <f t="shared" si="10"/>
-        <v>6.4144807518826133E-2</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" ref="K16:K54" si="11">$L$1</f>
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="9">
-        <f t="shared" ref="L16:L54" si="12">K16*D16/G16</f>
-        <v>3.9143585521968144E-2</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
-        <v>0.56414480751882612</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="5"/>
-        <v>3.9143585521968144E-2</v>
-      </c>
-      <c r="Q16" s="6">
-        <f>N16*D16</f>
-        <v>3.5146897874842452E-2</v>
-      </c>
-      <c r="R16" s="7">
-        <f t="shared" si="6"/>
-        <v>3.115059946170785E-2</v>
-      </c>
-      <c r="T16" s="3">
-        <f t="shared" si="8"/>
-        <v>5.8677010051401364E-2</v>
+        <v>6.2301198923415686E-2</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143431E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="D17" s="2">
@@ -5316,60 +5319,60 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.8304900510281109E-2</v>
       </c>
       <c r="G17" s="2">
         <v>0.80197061287931704</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.2287064127643622E-3</v>
       </c>
       <c r="I17" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5376244269468106E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="4"/>
+        <v>3.6351020582256054E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>0.55537624426946808</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="6"/>
+        <v>3.6351020582256054E-2</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="7"/>
+        <v>3.2381156667904913E-2</v>
+      </c>
+      <c r="R17" s="7">
+        <f t="shared" si="8"/>
+        <v>2.9152450255140554E-2</v>
+      </c>
+      <c r="T17" s="3">
         <f t="shared" si="10"/>
-        <v>5.5376244269468106E-2</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="9">
-        <f t="shared" si="12"/>
-        <v>3.6351020582256054E-2</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="4"/>
-        <v>0.55537624426946808</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="5"/>
-        <v>3.6351020582256054E-2</v>
-      </c>
-      <c r="Q17" s="6">
-        <f>N17*D17</f>
-        <v>3.2381156667904913E-2</v>
-      </c>
-      <c r="R17" s="7">
-        <f t="shared" si="6"/>
-        <v>2.9152450255140554E-2</v>
-      </c>
-      <c r="T17" s="3">
-        <f t="shared" si="8"/>
-        <v>5.4680711638266759E-2</v>
+        <v>5.8304900510281081E-2</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="9"/>
-        <v>3.62418887201435E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="D18" s="2">
@@ -5379,60 +5382,60 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5076194097516747E-2</v>
       </c>
       <c r="G18" s="2">
         <v>0.81014979417296795</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.1181700381361505E-3</v>
       </c>
       <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>5.6615568472563382E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="4"/>
+        <v>3.3991364617786915E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>0.55661556847256333</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="6"/>
+        <v>3.3991364617786915E-2</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="7"/>
+        <v>3.065626708689452E-2</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="8"/>
+        <v>2.7538097048758373E-2</v>
+      </c>
+      <c r="T18" s="3">
         <f t="shared" si="10"/>
-        <v>5.6615568472563382E-2</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="9">
-        <f t="shared" si="12"/>
-        <v>3.3991364617786915E-2</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="4"/>
-        <v>0.55661556847256333</v>
-      </c>
-      <c r="O18" s="4">
-        <f t="shared" si="5"/>
-        <v>3.3991364617786915E-2</v>
-      </c>
-      <c r="Q18" s="6">
-        <f>N18*D18</f>
-        <v>3.065626708689452E-2</v>
-      </c>
-      <c r="R18" s="7">
-        <f t="shared" si="6"/>
-        <v>2.7538097048758373E-2</v>
-      </c>
-      <c r="T18" s="3">
-        <f t="shared" si="8"/>
-        <v>5.1452005225502397E-2</v>
+        <v>5.5076194097516719E-2</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" si="9"/>
-        <v>3.62418887201435E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="D19" s="2">
@@ -5442,60 +5445,60 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.1958024059380596E-2</v>
       </c>
       <c r="G19" s="2">
         <v>0.82014242876819388</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.3774661039167033E-3</v>
       </c>
       <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>4.57574387586333E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="4"/>
+        <v>3.1676220030110211E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>0.54575743875863325</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="6"/>
+        <v>3.1676220030110211E-2</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="7"/>
+        <v>2.8356478133606998E-2</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="8"/>
+        <v>2.5979012029690298E-2</v>
+      </c>
+      <c r="T19" s="3">
         <f t="shared" si="10"/>
-        <v>4.57574387586333E-2</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="9">
-        <f t="shared" si="12"/>
-        <v>3.1676220030110211E-2</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="4"/>
-        <v>0.54575743875863325</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="5"/>
-        <v>3.1676220030110211E-2</v>
-      </c>
-      <c r="Q19" s="6">
-        <f>N19*D19</f>
-        <v>2.8356478133606998E-2</v>
-      </c>
-      <c r="R19" s="7">
-        <f t="shared" si="6"/>
-        <v>2.5979012029690298E-2</v>
-      </c>
-      <c r="T19" s="3">
-        <f t="shared" si="8"/>
-        <v>4.8333835187366253E-2</v>
+        <v>5.1958024059380575E-2</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143431E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="D20" s="2">
@@ -5505,60 +5508,60 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.9580557955463893E-2</v>
       </c>
       <c r="G20" s="2">
         <v>0.83237587100697863</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-5.7116812602715575E-3</v>
       </c>
       <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11520001984249789</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="4"/>
+        <v>2.9782553580921984E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>0.61520001984249784</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="6"/>
+        <v>2.9782553580921984E-2</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="7"/>
+        <v>3.05019602380035E-2</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="8"/>
+        <v>2.4790278977731946E-2</v>
+      </c>
+      <c r="T20" s="3">
         <f t="shared" si="10"/>
-        <v>0.11520001984249789</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="9">
-        <f t="shared" si="12"/>
-        <v>2.9782553580921984E-2</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="4"/>
-        <v>0.61520001984249784</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="5"/>
-        <v>2.9782553580921984E-2</v>
-      </c>
-      <c r="Q20" s="6">
-        <f>N20*D20</f>
-        <v>3.05019602380035E-2</v>
-      </c>
-      <c r="R20" s="7">
-        <f t="shared" si="6"/>
-        <v>2.4790278977731946E-2</v>
-      </c>
-      <c r="T20" s="3">
-        <f t="shared" si="8"/>
-        <v>4.5956369083449557E-2</v>
+        <v>4.9580557955463879E-2</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143361E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="D21" s="2">
@@ -5568,60 +5571,60 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.3868876695192335E-2</v>
       </c>
       <c r="G21" s="2">
         <v>0.84265716396272428</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.3913593162582453E-3</v>
       </c>
       <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>7.7306727952528367E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="4"/>
+        <v>2.6030085882669193E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>0.57730672795252835</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="6"/>
+        <v>2.6030085882669193E-2</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="7"/>
+        <v>2.5325797663854413E-2</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" si="8"/>
+        <v>2.1934438347596168E-2</v>
+      </c>
+      <c r="T21" s="3">
         <f t="shared" si="10"/>
-        <v>7.7306727952528367E-2</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="9">
-        <f t="shared" si="12"/>
-        <v>2.6030085882669193E-2</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="4"/>
-        <v>0.57730672795252835</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" si="5"/>
-        <v>2.6030085882669193E-2</v>
-      </c>
-      <c r="Q21" s="6">
-        <f>N21*D21</f>
-        <v>2.5325797663854413E-2</v>
-      </c>
-      <c r="R21" s="7">
-        <f t="shared" si="6"/>
-        <v>2.1934438347596168E-2</v>
-      </c>
-      <c r="T21" s="3">
-        <f t="shared" si="8"/>
-        <v>4.0244687823177999E-2</v>
+        <v>4.3868876695192321E-2</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143361E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="D22" s="2">
@@ -5631,60 +5634,60 @@
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.047751737893409E-2</v>
       </c>
       <c r="G22" s="2">
         <v>0.8507263350639428</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.3802996932732537E-3</v>
       </c>
       <c r="I22" s="3">
+        <f t="shared" si="2"/>
+        <v>5.8805476407800754E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="4"/>
+        <v>2.3789975524791823E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>0.55880547640780076</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="6"/>
+        <v>2.3789975524791823E-2</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="7"/>
+        <v>2.2619058382740299E-2</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" si="8"/>
+        <v>2.0238758689467045E-2</v>
+      </c>
+      <c r="T22" s="3">
         <f t="shared" si="10"/>
-        <v>5.8805476407800754E-2</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L22" s="9">
-        <f t="shared" si="12"/>
-        <v>2.3789975524791823E-2</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="4"/>
-        <v>0.55880547640780076</v>
-      </c>
-      <c r="O22" s="4">
-        <f t="shared" si="5"/>
-        <v>2.3789975524791823E-2</v>
-      </c>
-      <c r="Q22" s="6">
-        <f>N22*D22</f>
-        <v>2.2619058382740299E-2</v>
-      </c>
-      <c r="R22" s="7">
-        <f t="shared" si="6"/>
-        <v>2.0238758689467045E-2</v>
-      </c>
-      <c r="T22" s="3">
-        <f t="shared" si="8"/>
-        <v>3.6853328506919754E-2</v>
+        <v>4.0477517378934083E-2</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143361E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="D23" s="2">
@@ -5694,60 +5697,60 @@
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8097217685660836E-2</v>
       </c>
       <c r="G23" s="2">
         <v>0.85867029925809613</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.4960272094703574E-3</v>
       </c>
       <c r="I23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11801458170953485</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="4"/>
+        <v>2.2183845020945406E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>0.61801458170953483</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="6"/>
+        <v>2.2183845020945406E-2</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" si="7"/>
+        <v>2.3544636052300776E-2</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" si="8"/>
+        <v>1.9048608842830418E-2</v>
+      </c>
+      <c r="T23" s="3">
         <f t="shared" si="10"/>
-        <v>0.11801458170953485</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L23" s="9">
-        <f t="shared" si="12"/>
-        <v>2.2183845020945406E-2</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="4"/>
-        <v>0.61801458170953483</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="5"/>
-        <v>2.2183845020945406E-2</v>
-      </c>
-      <c r="Q23" s="6">
-        <f>N23*D23</f>
-        <v>2.3544636052300776E-2</v>
-      </c>
-      <c r="R23" s="7">
-        <f t="shared" si="6"/>
-        <v>1.9048608842830418E-2</v>
-      </c>
-      <c r="T23" s="3">
-        <f t="shared" si="8"/>
-        <v>3.44730288136465E-2</v>
+        <v>3.8097217685660836E-2</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143361E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="D24" s="2">
@@ -5757,60 +5760,60 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3601190476190479E-2</v>
       </c>
       <c r="G24" s="2">
         <v>0.8706701962195238</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.8425368024892761E-3</v>
       </c>
       <c r="I24" s="3">
+        <f t="shared" si="2"/>
+        <v>8.4596312279574551E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="4"/>
+        <v>1.9296164392721755E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>0.58459631227957454</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="6"/>
+        <v>1.9296164392721755E-2</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="7"/>
+        <v>1.9643132040584516E-2</v>
+      </c>
+      <c r="R24" s="7">
+        <f t="shared" si="8"/>
+        <v>1.6800595238095239E-2</v>
+      </c>
+      <c r="T24" s="3">
         <f t="shared" si="10"/>
-        <v>8.4596312279574551E-2</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="9">
-        <f t="shared" si="12"/>
-        <v>1.9296164392721755E-2</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="4"/>
-        <v>0.58459631227957454</v>
-      </c>
-      <c r="O24" s="4">
-        <f t="shared" si="5"/>
-        <v>1.9296164392721755E-2</v>
-      </c>
-      <c r="Q24" s="6">
-        <f>N24*D24</f>
-        <v>1.9643132040584516E-2</v>
-      </c>
-      <c r="R24" s="7">
-        <f t="shared" si="6"/>
-        <v>1.6800595238095239E-2</v>
-      </c>
-      <c r="T24" s="3">
-        <f t="shared" si="8"/>
-        <v>2.9977001604176143E-2</v>
+        <v>3.3601190476190479E-2</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143361E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="D25" s="2">
@@ -5820,60 +5823,60 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.0758653673701203E-2</v>
       </c>
       <c r="G25" s="2">
         <v>0.87657166412914034</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.3096818870517966E-3</v>
       </c>
       <c r="I25" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2579298201584841E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="4"/>
+        <v>1.7544859668866562E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>0.54257929820158479</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="6"/>
+        <v>1.7544859668866562E-2</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" si="7"/>
+        <v>1.6689008723902398E-2</v>
+      </c>
+      <c r="R25" s="7">
+        <f t="shared" si="8"/>
+        <v>1.5379326836850601E-2</v>
+      </c>
+      <c r="T25" s="3">
         <f t="shared" si="10"/>
-        <v>4.2579298201584841E-2</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L25" s="9">
-        <f t="shared" si="12"/>
-        <v>1.7544859668866562E-2</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="4"/>
-        <v>0.54257929820158479</v>
-      </c>
-      <c r="O25" s="4">
-        <f t="shared" si="5"/>
-        <v>1.7544859668866562E-2</v>
-      </c>
-      <c r="Q25" s="6">
-        <f>N25*D25</f>
-        <v>1.6689008723902398E-2</v>
-      </c>
-      <c r="R25" s="7">
-        <f t="shared" si="6"/>
-        <v>1.5379326836850601E-2</v>
-      </c>
-      <c r="T25" s="3">
-        <f t="shared" si="8"/>
-        <v>2.7134464801686867E-2</v>
+        <v>3.0758653673701203E-2</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143361E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="D26" s="2">
@@ -5883,60 +5886,60 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9448971786649406E-2</v>
       </c>
       <c r="G26" s="2">
         <v>0.88721793775713342</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.4076300182221573E-3</v>
       </c>
       <c r="I26" s="3">
+        <f t="shared" si="2"/>
+        <v>8.1755995953435912E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="4"/>
+        <v>1.6596244582867504E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>0.58175599595343597</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="6"/>
+        <v>1.6596244582867504E-2</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" si="7"/>
+        <v>1.7132115911546862E-2</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" si="8"/>
+        <v>1.4724485893324703E-2</v>
+      </c>
+      <c r="T26" s="3">
         <f t="shared" si="10"/>
-        <v>8.1755995953435912E-2</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="9">
-        <f t="shared" si="12"/>
-        <v>1.6596244582867504E-2</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="4"/>
-        <v>0.58175599595343597</v>
-      </c>
-      <c r="O26" s="4">
-        <f t="shared" si="5"/>
-        <v>1.6596244582867504E-2</v>
-      </c>
-      <c r="Q26" s="6">
-        <f>N26*D26</f>
-        <v>1.7132115911546862E-2</v>
-      </c>
-      <c r="R26" s="7">
-        <f t="shared" si="6"/>
-        <v>1.4724485893324703E-2</v>
-      </c>
-      <c r="T26" s="3">
-        <f t="shared" si="8"/>
-        <v>2.582478291463507E-2</v>
+        <v>2.9448971786649406E-2</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143361E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="D27" s="2">
@@ -5946,60 +5949,60 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7041341768427249E-2</v>
       </c>
       <c r="G27" s="2">
         <v>0.89426471082256431</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.0437535863349977E-3</v>
       </c>
       <c r="I27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11255926619324798</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="4"/>
+        <v>1.5119316149439704E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>0.61255926619324796</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="6"/>
+        <v>1.5119316149439704E-2</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="7"/>
+        <v>1.6564424470548622E-2</v>
+      </c>
+      <c r="R27" s="7">
+        <f t="shared" si="8"/>
+        <v>1.3520670884213624E-2</v>
+      </c>
+      <c r="T27" s="3">
         <f t="shared" si="10"/>
-        <v>0.11255926619324798</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="9">
-        <f t="shared" si="12"/>
-        <v>1.5119316149439704E-2</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="4"/>
-        <v>0.61255926619324796</v>
-      </c>
-      <c r="O27" s="4">
-        <f t="shared" si="5"/>
-        <v>1.5119316149439704E-2</v>
-      </c>
-      <c r="Q27" s="6">
-        <f>N27*D27</f>
-        <v>1.6564424470548622E-2</v>
-      </c>
-      <c r="R27" s="7">
-        <f t="shared" si="6"/>
-        <v>1.3520670884213624E-2</v>
-      </c>
-      <c r="T27" s="3">
-        <f t="shared" si="8"/>
-        <v>2.3417152896412913E-2</v>
+        <v>2.7041341768427249E-2</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143361E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="D28" s="2">
@@ -6009,60 +6012,60 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3997588182092251E-2</v>
       </c>
       <c r="G28" s="2">
         <v>0.89663961890227006</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.432267517009117E-3</v>
       </c>
       <c r="I28" s="3">
+        <f t="shared" si="2"/>
+        <v>5.9683810978884942E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="4"/>
+        <v>1.3381958412384121E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>0.55968381097888498</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="6"/>
+        <v>1.3381958412384121E-2</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="7"/>
+        <v>1.3431061608055243E-2</v>
+      </c>
+      <c r="R28" s="7">
+        <f t="shared" si="8"/>
+        <v>1.1998794091046126E-2</v>
+      </c>
+      <c r="T28" s="3">
         <f t="shared" si="10"/>
-        <v>5.9683810978884942E-2</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L28" s="9">
-        <f t="shared" si="12"/>
-        <v>1.3381958412384121E-2</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="4"/>
-        <v>0.55968381097888498</v>
-      </c>
-      <c r="O28" s="4">
-        <f t="shared" si="5"/>
-        <v>1.3381958412384121E-2</v>
-      </c>
-      <c r="Q28" s="6">
-        <f>N28*D28</f>
-        <v>1.3431061608055243E-2</v>
-      </c>
-      <c r="R28" s="7">
-        <f t="shared" si="6"/>
-        <v>1.1998794091046126E-2</v>
-      </c>
-      <c r="T28" s="3">
-        <f t="shared" si="8"/>
-        <v>2.0373399310077915E-2</v>
+        <v>2.3997588182092251E-2</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143361E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="D29" s="2">
@@ -6072,60 +6075,60 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2565320665083134E-2</v>
       </c>
       <c r="G29" s="2">
         <v>0.89918514526490312</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.7384740987451304E-3</v>
       </c>
       <c r="I29" s="3">
+        <f t="shared" si="2"/>
+        <v>7.7041852165442098E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="4"/>
+        <v>1.2547649827130603E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>0.57704185216544213</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2547649827130603E-2</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="7"/>
+        <v>1.3021134431286698E-2</v>
+      </c>
+      <c r="R29" s="7">
+        <f t="shared" si="8"/>
+        <v>1.1282660332541567E-2</v>
+      </c>
+      <c r="T29" s="3">
         <f t="shared" si="10"/>
-        <v>7.7041852165442098E-2</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="9">
-        <f t="shared" si="12"/>
-        <v>1.2547649827130603E-2</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="4"/>
-        <v>0.57704185216544213</v>
-      </c>
-      <c r="O29" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2547649827130603E-2</v>
-      </c>
-      <c r="Q29" s="6">
-        <f>N29*D29</f>
-        <v>1.3021134431286698E-2</v>
-      </c>
-      <c r="R29" s="7">
-        <f t="shared" si="6"/>
-        <v>1.1282660332541567E-2</v>
-      </c>
-      <c r="T29" s="3">
-        <f t="shared" si="8"/>
-        <v>1.8941131793068802E-2</v>
+        <v>2.2565320665083138E-2</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143327E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="D30" s="2">
@@ -6135,60 +6138,60 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0826846566338004E-2</v>
       </c>
       <c r="G30" s="2">
         <v>0.8991475870889033</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.1345621487468824E-4</v>
       </c>
       <c r="I30" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0249089519855255E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="4"/>
+        <v>1.1581439390705248E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>0.51024908951985526</v>
+      </c>
+      <c r="O30" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1581439390705248E-2</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="7"/>
+        <v>1.062687949804369E-2</v>
+      </c>
+      <c r="R30" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0413423283169002E-2</v>
+      </c>
+      <c r="T30" s="3">
         <f t="shared" si="10"/>
-        <v>1.0249089519855255E-2</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L30" s="9">
-        <f t="shared" si="12"/>
-        <v>1.1581439390705248E-2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="4"/>
-        <v>0.51024908951985526</v>
-      </c>
-      <c r="O30" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1581439390705248E-2</v>
-      </c>
-      <c r="Q30" s="6">
-        <f>N30*D30</f>
-        <v>1.062687949804369E-2</v>
-      </c>
-      <c r="R30" s="7">
-        <f t="shared" si="6"/>
-        <v>1.0413423283169002E-2</v>
-      </c>
-      <c r="T30" s="3">
-        <f t="shared" si="8"/>
-        <v>1.7202657694323671E-2</v>
+        <v>2.0826846566338007E-2</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143327E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="D31" s="2">
@@ -6198,60 +6201,60 @@
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0613390351463316E-2</v>
       </c>
       <c r="G31" s="2">
         <v>0.89931098298151191</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.1085080079384227E-3</v>
       </c>
       <c r="I31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10228826854718456</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="4"/>
+        <v>1.1460657515336431E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>0.60228826854718454</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1460657515336431E-2</v>
+      </c>
+      <c r="Q31" s="6">
+        <f t="shared" si="7"/>
+        <v>1.2415203183670081E-2</v>
+      </c>
+      <c r="R31" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0306695175731658E-2</v>
+      </c>
+      <c r="T31" s="3">
         <f t="shared" si="10"/>
-        <v>0.10228826854718456</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L31" s="9">
-        <f t="shared" si="12"/>
-        <v>1.1460657515336431E-2</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="4"/>
-        <v>0.60228826854718454</v>
-      </c>
-      <c r="O31" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1460657515336431E-2</v>
-      </c>
-      <c r="Q31" s="6">
-        <f>N31*D31</f>
-        <v>1.2415203183670081E-2</v>
-      </c>
-      <c r="R31" s="7">
-        <f t="shared" si="6"/>
-        <v>1.0306695175731658E-2</v>
-      </c>
-      <c r="T31" s="3">
-        <f t="shared" si="8"/>
-        <v>1.6989201479448983E-2</v>
+        <v>2.0613390351463319E-2</v>
       </c>
       <c r="U31" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143327E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="D32" s="2">
@@ -6261,60 +6264,60 @@
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8504882343524893E-2</v>
       </c>
       <c r="G32" s="2">
         <v>0.90208873346512664</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.7482262273454119E-3</v>
       </c>
       <c r="I32" s="3">
+        <f t="shared" si="2"/>
+        <v>9.4473782372204038E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0256686319783343E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>0.59447378237220405</v>
+      </c>
+      <c r="O32" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0256686319783343E-2</v>
+      </c>
+      <c r="Q32" s="6">
+        <f t="shared" si="7"/>
+        <v>1.1000667399107858E-2</v>
+      </c>
+      <c r="R32" s="7">
+        <f t="shared" si="8"/>
+        <v>9.2524411717624464E-3</v>
+      </c>
+      <c r="T32" s="3">
         <f t="shared" si="10"/>
-        <v>9.4473782372204038E-2</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L32" s="9">
-        <f t="shared" si="12"/>
-        <v>1.0256686319783343E-2</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="4"/>
-        <v>0.59447378237220405</v>
-      </c>
-      <c r="O32" s="4">
-        <f t="shared" si="5"/>
-        <v>1.0256686319783343E-2</v>
-      </c>
-      <c r="Q32" s="6">
-        <f>N32*D32</f>
-        <v>1.1000667399107858E-2</v>
-      </c>
-      <c r="R32" s="7">
-        <f t="shared" si="6"/>
-        <v>9.2524411717624464E-3</v>
-      </c>
-      <c r="T32" s="3">
-        <f t="shared" si="8"/>
-        <v>1.4880693471510558E-2</v>
+        <v>1.8504882343524896E-2</v>
       </c>
       <c r="U32" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143344E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="D33" s="2">
@@ -6324,60 +6327,60 @@
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6756656116179481E-2</v>
       </c>
       <c r="G33" s="2">
         <v>0.9007012970893068</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.9102490573523297E-4</v>
       </c>
       <c r="I33" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9303275207821517E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="4"/>
+        <v>9.3020050988768671E-3</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>0.5293032752078215</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="6"/>
+        <v>9.3020050988768671E-3</v>
+      </c>
+      <c r="Q33" s="6">
+        <f t="shared" si="7"/>
+        <v>8.8693529638249734E-3</v>
+      </c>
+      <c r="R33" s="7">
+        <f t="shared" si="8"/>
+        <v>8.3783280580897405E-3</v>
+      </c>
+      <c r="T33" s="3">
         <f t="shared" si="10"/>
-        <v>2.9303275207821517E-2</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L33" s="9">
-        <f t="shared" si="12"/>
-        <v>9.3020050988768671E-3</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="4"/>
-        <v>0.5293032752078215</v>
-      </c>
-      <c r="O33" s="4">
-        <f t="shared" si="5"/>
-        <v>9.3020050988768671E-3</v>
-      </c>
-      <c r="Q33" s="6">
-        <f>N33*D33</f>
-        <v>8.8693529638249734E-3</v>
-      </c>
-      <c r="R33" s="7">
-        <f t="shared" si="6"/>
-        <v>8.3783280580897405E-3</v>
-      </c>
-      <c r="T33" s="3">
-        <f t="shared" si="8"/>
-        <v>1.3132467244165147E-2</v>
+        <v>1.6756656116179484E-2</v>
       </c>
       <c r="U33" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143344E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="D34" s="2">
@@ -6387,60 +6390,60 @@
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6265631210444248E-2</v>
       </c>
       <c r="G34" s="2">
         <v>0.89807578103538466</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.1884029264708877E-3</v>
       </c>
       <c r="I34" s="3">
+        <f t="shared" si="2"/>
+        <v>7.306220773699873E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="4"/>
+        <v>9.055823324670734E-3</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>0.57306220773699867</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="6"/>
+        <v>9.055823324670734E-3</v>
+      </c>
+      <c r="Q34" s="6">
+        <f t="shared" si="7"/>
+        <v>9.32121853169301E-3</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="8"/>
+        <v>8.132815605222124E-3</v>
+      </c>
+      <c r="T34" s="3">
         <f t="shared" si="10"/>
-        <v>7.306220773699873E-2</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="9">
-        <f t="shared" si="12"/>
-        <v>9.055823324670734E-3</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="4"/>
-        <v>0.57306220773699867</v>
-      </c>
-      <c r="O34" s="4">
-        <f t="shared" si="5"/>
-        <v>9.055823324670734E-3</v>
-      </c>
-      <c r="Q34" s="6">
-        <f>N34*D34</f>
-        <v>9.32121853169301E-3</v>
-      </c>
-      <c r="R34" s="7">
-        <f t="shared" si="6"/>
-        <v>8.132815605222124E-3</v>
-      </c>
-      <c r="T34" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2641442338429914E-2</v>
+        <v>1.6265631210444248E-2</v>
       </c>
       <c r="U34" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143344E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="D35" s="2">
@@ -6450,60 +6453,60 @@
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.507722828397336E-2</v>
       </c>
       <c r="G35" s="2">
         <v>0.89783193991781207</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.1556335627446041E-3</v>
       </c>
       <c r="I35" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20929798921323939</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="4"/>
+        <v>8.3964646464646468E-3</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>0.70929798921323939</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="6"/>
+        <v>8.3964646464646468E-3</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" si="7"/>
+        <v>1.0694247704731284E-2</v>
+      </c>
+      <c r="R35" s="7">
+        <f t="shared" si="8"/>
+        <v>7.5386141419866801E-3</v>
+      </c>
+      <c r="T35" s="3">
         <f t="shared" si="10"/>
-        <v>0.20929798921323939</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="9">
-        <f t="shared" si="12"/>
-        <v>8.3964646464646468E-3</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="4"/>
-        <v>0.70929798921323939</v>
-      </c>
-      <c r="O35" s="4">
-        <f t="shared" si="5"/>
-        <v>8.3964646464646468E-3</v>
-      </c>
-      <c r="Q35" s="6">
-        <f>N35*D35</f>
-        <v>1.0694247704731284E-2</v>
-      </c>
-      <c r="R35" s="7">
-        <f t="shared" si="6"/>
-        <v>7.5386141419866801E-3</v>
-      </c>
-      <c r="T35" s="3">
-        <f t="shared" si="8"/>
-        <v>1.1453039411959026E-2</v>
+        <v>1.5077228283973362E-2</v>
       </c>
       <c r="U35" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143344E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="D36" s="2">
@@ -6513,60 +6516,60 @@
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1921594721228756E-2</v>
       </c>
       <c r="G36" s="2">
         <v>0.89741883611965945</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.1163520928890951E-4</v>
       </c>
       <c r="I36" s="3">
+        <f t="shared" si="2"/>
+        <v>5.9692954334515526E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="4"/>
+        <v>6.6421576199450095E-3</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>0.55969295433451549</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="6"/>
+        <v>6.6421576199450095E-3</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" si="7"/>
+        <v>6.6724325699032876E-3</v>
+      </c>
+      <c r="R36" s="7">
+        <f t="shared" si="8"/>
+        <v>5.9607973606143781E-3</v>
+      </c>
+      <c r="T36" s="3">
         <f t="shared" si="10"/>
-        <v>5.9692954334515526E-2</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="9">
-        <f t="shared" si="12"/>
-        <v>6.6421576199450095E-3</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="4"/>
-        <v>0.55969295433451549</v>
-      </c>
-      <c r="O36" s="4">
-        <f t="shared" si="5"/>
-        <v>6.6421576199450095E-3</v>
-      </c>
-      <c r="Q36" s="6">
-        <f>N36*D36</f>
-        <v>6.6724325699032876E-3</v>
-      </c>
-      <c r="R36" s="7">
-        <f t="shared" si="6"/>
-        <v>5.9607973606143781E-3</v>
-      </c>
-      <c r="T36" s="3">
-        <f t="shared" si="8"/>
-        <v>8.2974058492144218E-3</v>
+        <v>1.1921594721228758E-2</v>
       </c>
       <c r="U36" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143344E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="D37" s="2">
@@ -6576,60 +6579,60 @@
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1209959511939847E-2</v>
       </c>
       <c r="G37" s="2">
         <v>0.89360178477979457</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.1225235942621979E-6</v>
       </c>
       <c r="I37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>4.613378872422562E-6</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" si="4"/>
+        <v>6.2723461965232402E-3</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="6"/>
+        <v>6.2769595753956629E-3</v>
+      </c>
+      <c r="Q37" s="6">
+        <f t="shared" si="7"/>
+        <v>5.6049797559699233E-3</v>
+      </c>
+      <c r="R37" s="7">
+        <f t="shared" si="8"/>
+        <v>5.6091022795641855E-3</v>
+      </c>
+      <c r="T37" s="3">
         <f t="shared" si="10"/>
-        <v>-3.6775544013974842E-4</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
-        <v>4.613378872422562E-6</v>
-      </c>
-      <c r="K37" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L37" s="9">
-        <f t="shared" si="12"/>
-        <v>6.2723461965232402E-3</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="4"/>
-        <v>0.49963224455986027</v>
-      </c>
-      <c r="O37" s="4">
-        <f t="shared" si="5"/>
-        <v>6.2769595753956629E-3</v>
-      </c>
-      <c r="Q37" s="6">
-        <f>N37*D37</f>
-        <v>5.6008572323756611E-3</v>
-      </c>
-      <c r="R37" s="7">
-        <f t="shared" si="6"/>
-        <v>5.6091022795641855E-3</v>
-      </c>
-      <c r="T37" s="3">
-        <f t="shared" si="8"/>
-        <v>7.5857706399255131E-3</v>
+        <v>1.120995951193985E-2</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6241888720143335E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="D38" s="2">
@@ -6639,60 +6642,60 @@
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1214082035534109E-2</v>
       </c>
       <c r="G38" s="2">
         <v>0.89142355779776261</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-6.7897399005261913E-4</v>
       </c>
       <c r="I38" s="3">
+        <f t="shared" si="2"/>
+        <v>6.0546551015156783E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="4"/>
+        <v>6.2899852362204734E-3</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>0.56054655101515682</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="6"/>
+        <v>6.2899852362204734E-3</v>
+      </c>
+      <c r="Q38" s="6">
+        <f t="shared" si="7"/>
+        <v>6.2860150078196744E-3</v>
+      </c>
+      <c r="R38" s="7">
+        <f t="shared" si="8"/>
+        <v>5.6070410177670544E-3</v>
+      </c>
+      <c r="T38" s="3">
         <f t="shared" si="10"/>
-        <v>6.0546551015156783E-2</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L38" s="9">
-        <f t="shared" si="12"/>
-        <v>6.2899852362204734E-3</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="4"/>
-        <v>0.56054655101515682</v>
-      </c>
-      <c r="O38" s="4">
-        <f t="shared" si="5"/>
-        <v>6.2899852362204734E-3</v>
-      </c>
-      <c r="Q38" s="6">
-        <f>N38*D38</f>
-        <v>6.2860150078196744E-3</v>
-      </c>
-      <c r="R38" s="7">
-        <f t="shared" si="6"/>
-        <v>5.6070410177670544E-3</v>
-      </c>
-      <c r="T38" s="3">
-        <f t="shared" si="8"/>
-        <v>7.5940156871140384E-3</v>
+        <v>1.1214082035534112E-2</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6200663484200705E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="D39" s="2">
@@ -6702,18 +6705,18 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.053510804548149E-2</v>
       </c>
       <c r="G39" s="2">
         <v>0.88613461227569112</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.6310532348925953E-3</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.15482074107366697</v>
       </c>
       <c r="J39">
@@ -6721,41 +6724,41 @@
         <v>0</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L39" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="4"/>
         <v>5.9444174166869371E-3</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65482074107366695</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9444174166869371E-3</v>
       </c>
       <c r="Q39" s="6">
-        <f>N39*D39</f>
+        <f t="shared" si="7"/>
         <v>6.8986072576333402E-3</v>
       </c>
       <c r="R39" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.2675540227407449E-3</v>
       </c>
       <c r="T39" s="3">
         <f t="shared" ref="T39:T55" si="13">T38+R38-Q38</f>
-        <v>6.9150416970614192E-3</v>
+        <v>1.0535108045481491E-2</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6200663484200705E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="D40" s="2">
@@ -6765,18 +6768,18 @@
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.9040548105888944E-3</v>
       </c>
       <c r="G40" s="2">
         <v>0.88374076937431689</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.2306950376089052E-4</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>4.7514251962798695E-2</v>
       </c>
       <c r="J40">
@@ -6784,41 +6787,41 @@
         <v>0</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L40" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="4"/>
         <v>5.0377073906485671E-3</v>
       </c>
       <c r="N40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54751425196279868</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0377073906485671E-3</v>
       </c>
       <c r="Q40" s="6">
-        <f>N40*D40</f>
+        <f t="shared" si="7"/>
         <v>4.8750969090553377E-3</v>
       </c>
       <c r="R40" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4520274052944472E-3</v>
       </c>
       <c r="T40" s="3">
         <f t="shared" si="13"/>
-        <v>5.2839884621688231E-3</v>
+        <v>8.9040548105888961E-3</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6200663484200713E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="D41" s="2">
@@ -6828,18 +6831,18 @@
         <v>0</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.4809853068280039E-3</v>
       </c>
       <c r="G41" s="2">
         <v>0.87216400172860853</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.9363764959455633E-3</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.22831975600601442</v>
       </c>
       <c r="J41">
@@ -6847,41 +6850,41 @@
         <v>0</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L41" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="4"/>
         <v>4.8620358613855252E-3</v>
       </c>
       <c r="N41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.7283197560060144</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8620358613855252E-3</v>
       </c>
       <c r="Q41" s="6">
-        <f>N41*D41</f>
+        <f t="shared" si="7"/>
         <v>6.1768691493595653E-3</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.2404926534140019E-3</v>
       </c>
       <c r="T41" s="3">
         <f t="shared" si="13"/>
-        <v>4.8609189584079325E-3</v>
+        <v>8.4809853068280074E-3</v>
       </c>
       <c r="U41" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6200663484200713E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="D42" s="2">
@@ -6891,18 +6894,18 @@
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.5446088108824406E-3</v>
       </c>
       <c r="G42" s="2">
         <v>0.86683614138518539</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.1024687773090397E-3</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.16845449577915853</v>
       </c>
       <c r="J42">
@@ -6910,41 +6913,41 @@
         <v>0</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L42" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="4"/>
         <v>3.7749976601254174E-3</v>
       </c>
       <c r="N42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6684544957791585</v>
       </c>
       <c r="O42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7749976601254174E-3</v>
       </c>
       <c r="Q42" s="6">
-        <f>N42*D42</f>
+        <f t="shared" si="7"/>
         <v>4.3747731827502596E-3</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2723044054412203E-3</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="13"/>
-        <v>2.9245424624623683E-3</v>
+        <v>6.544608810882444E-3</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6200663484200722E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="D43" s="2">
@@ -6954,18 +6957,18 @@
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4421400335734008E-3</v>
       </c>
       <c r="G43" s="2">
         <v>0.85541777224237836</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.4666352460558711E-4</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.13720035133225253</v>
       </c>
       <c r="J43">
@@ -6973,41 +6976,41 @@
         <v>0</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L43" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L43" s="8">
+        <f t="shared" si="4"/>
         <v>3.180983731088181E-3</v>
       </c>
       <c r="N43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6372003513322525</v>
       </c>
       <c r="O43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.180983731088181E-3</v>
       </c>
       <c r="Q43" s="6">
-        <f>N43*D43</f>
+        <f t="shared" si="7"/>
         <v>3.4677335413922875E-3</v>
       </c>
       <c r="R43" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7210700167867004E-3</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="13"/>
-        <v>1.8220736851533286E-3</v>
+        <v>5.4421400335734043E-3</v>
       </c>
       <c r="U43" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6200663484200722E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="D44" s="2">
@@ -7017,18 +7020,18 @@
         <v>0</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.6954765089678137E-3</v>
       </c>
       <c r="G44" s="2">
         <v>0.84103628074581638</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.5631571817109917E-3</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.33290703908869385</v>
       </c>
       <c r="J44">
@@ -7036,41 +7039,41 @@
         <v>0</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L44" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" si="4"/>
         <v>2.7914827317579846E-3</v>
       </c>
       <c r="N44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8329070390886939</v>
       </c>
       <c r="O44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7914827317579846E-3</v>
       </c>
       <c r="Q44" s="6">
-        <f>N44*D44</f>
+        <f t="shared" si="7"/>
         <v>3.9108954361948989E-3</v>
       </c>
       <c r="R44" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3477382544839069E-3</v>
       </c>
       <c r="T44" s="3">
         <f t="shared" si="13"/>
-        <v>1.0754101605477415E-3</v>
+        <v>4.6954765089678181E-3</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6200663484200722E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="D45" s="2">
@@ -7080,18 +7083,18 @@
         <v>0</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1323193272568221E-3</v>
       </c>
       <c r="G45" s="2">
         <v>0.81132714394559358</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8.2673438679516272E-4</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.26393681499874039</v>
       </c>
       <c r="J45">
@@ -7099,41 +7102,41 @@
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L45" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="4"/>
         <v>1.9303676393864562E-3</v>
       </c>
       <c r="N45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76393681499874044</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9303676393864562E-3</v>
       </c>
       <c r="Q45" s="6">
-        <f>N45*D45</f>
+        <f t="shared" si="7"/>
         <v>2.3928940504235742E-3</v>
       </c>
       <c r="R45" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.566159663628411E-3</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" si="13"/>
-        <v>-4.8774702116325059E-4</v>
+        <v>3.1323193272568255E-3</v>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6200663484200727E-3</v>
+        <f t="shared" si="11"/>
+        <v>-3.4694469519536142E-18</v>
       </c>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="D46" s="2">
@@ -7143,18 +7146,18 @@
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3055849404616593E-3</v>
       </c>
       <c r="G46" s="2">
         <v>0.78002007215124636</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.4473837961509847E-4</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.32301493930905689</v>
       </c>
       <c r="J46">
@@ -7162,41 +7165,41 @@
         <v>0</v>
       </c>
       <c r="K46" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L46" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="4"/>
         <v>1.4779010327920158E-3</v>
       </c>
       <c r="N46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82301493930905689</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4779010327920158E-3</v>
       </c>
       <c r="Q46" s="6">
-        <f>N46*D46</f>
+        <f t="shared" si="7"/>
         <v>1.8975308498459281E-3</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1527924702308297E-3</v>
       </c>
       <c r="T46" s="3">
         <f t="shared" si="13"/>
-        <v>-1.3144814079584137E-3</v>
+        <v>2.3055849404616624E-3</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6200663484200731E-3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="D47" s="2">
@@ -7206,60 +7209,60 @@
         <v>0</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5608465608465609E-3</v>
       </c>
       <c r="G47" s="2">
         <v>0.70140211640211636</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.3766339796603083E-5</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="10"/>
-        <v>-6.0074027869688074E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
         <v>1.3368414152723559E-4</v>
       </c>
       <c r="K47" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L47" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="4"/>
         <v>1.1126617131218648E-3</v>
       </c>
       <c r="N47">
-        <f t="shared" si="4"/>
-        <v>0.43992597213031193</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2463458546491005E-3</v>
       </c>
       <c r="Q47" s="6">
-        <f>N47*D47</f>
-        <v>6.8665694062667736E-4</v>
+        <f t="shared" si="7"/>
+        <v>7.8042328042328044E-4</v>
       </c>
       <c r="R47" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.7418962021988352E-4</v>
       </c>
       <c r="T47" s="3">
         <f t="shared" si="13"/>
-        <v>-2.0592197875735122E-3</v>
+        <v>1.5608465608465639E-3</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="9"/>
-        <v>3.6200663484200731E-3</v>
+        <f t="shared" si="11"/>
+        <v>-3.0357660829594124E-18</v>
       </c>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="D48" s="2">
@@ -7269,60 +7272,60 @@
         <v>0</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.654612900643164E-3</v>
       </c>
       <c r="G48" s="2">
         <v>0.45760721624723122</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6447966216825679E-4</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="10"/>
-        <v>-9.9406732598495973E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
         <v>3.5943415297759083E-4</v>
       </c>
       <c r="K48" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L48" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" si="4"/>
         <v>1.8078964250306175E-3</v>
       </c>
       <c r="N48">
-        <f t="shared" si="4"/>
-        <v>0.40059326740150403</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O48" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1673305780082084E-3</v>
       </c>
       <c r="Q48" s="6">
-        <f>N48*D48</f>
-        <v>6.628267881533252E-4</v>
+        <f t="shared" si="7"/>
+        <v>8.2730645032158198E-4</v>
       </c>
       <c r="R48" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.9178611248983877E-4</v>
       </c>
       <c r="T48" s="3">
         <f t="shared" si="13"/>
-        <v>-1.871687107980306E-3</v>
+        <v>1.6546129006431668E-3</v>
       </c>
       <c r="U48" s="3">
-        <f t="shared" si="9"/>
-        <v>3.52630000862347E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.8189256484623115E-18</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="D49" s="2">
@@ -7332,18 +7335,18 @@
         <v>0</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8190925628114207E-3</v>
       </c>
       <c r="G49" s="2">
         <v>0.25098204634731486</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.4060428515697281E-4</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7.7293639714335297E-2</v>
       </c>
       <c r="J49">
@@ -7351,41 +7354,41 @@
         <v>0</v>
       </c>
       <c r="K49" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L49" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="4"/>
         <v>3.6239495798319329E-3</v>
       </c>
       <c r="N49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57729363971433534</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6239495798319329E-3</v>
       </c>
       <c r="Q49" s="6">
-        <f>N49*D49</f>
+        <f t="shared" si="7"/>
         <v>1.0501505665626832E-3</v>
       </c>
       <c r="R49" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.0954628140571037E-4</v>
       </c>
       <c r="T49" s="3">
         <f t="shared" si="13"/>
-        <v>-1.5427277836437925E-3</v>
+        <v>1.8190925628114238E-3</v>
       </c>
       <c r="U49" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3618203464552132E-3</v>
+        <f t="shared" si="11"/>
+        <v>-3.0357660829594124E-18</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="D50" s="2">
@@ -7395,60 +7398,60 @@
         <v>0</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6784882776544479E-3</v>
       </c>
       <c r="G50" s="2">
         <v>0.13579511614055986</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1272948701114755E-4</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="10"/>
-        <v>-6.716131921318981E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
         <v>8.3014389777068742E-4</v>
       </c>
       <c r="K50" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L50" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" si="4"/>
         <v>6.180223285486443E-3</v>
       </c>
       <c r="N50">
-        <f t="shared" si="4"/>
-        <v>0.4328386807868102</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0103671832571299E-3</v>
       </c>
       <c r="Q50" s="6">
-        <f>N50*D50</f>
-        <v>7.2651465181607642E-4</v>
+        <f t="shared" si="7"/>
+        <v>8.3924413882722397E-4</v>
       </c>
       <c r="R50" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5197362583837142E-4</v>
       </c>
       <c r="T50" s="3">
         <f t="shared" si="13"/>
-        <v>-1.6833320688007653E-3</v>
+        <v>1.6784882776544508E-3</v>
       </c>
       <c r="U50" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3618203464552132E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.8189256484623115E-18</v>
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="D51" s="2">
@@ -7458,18 +7461,18 @@
         <v>0</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7912177646655955E-3</v>
       </c>
       <c r="G51" s="2">
         <v>9.7568685298843605E-2</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.9537245716908509E-4</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.22072830281632319</v>
       </c>
       <c r="J51">
@@ -7477,41 +7480,41 @@
         <v>0</v>
       </c>
       <c r="K51" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L51" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="4"/>
         <v>9.1792656587473005E-3</v>
       </c>
       <c r="N51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72072830281632316</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.1792656587473005E-3</v>
       </c>
       <c r="Q51" s="6">
-        <f>N51*D51</f>
+        <f t="shared" si="7"/>
         <v>1.2909813395018828E-3</v>
       </c>
       <c r="R51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.9560888233279764E-4</v>
       </c>
       <c r="T51" s="3">
         <f t="shared" si="13"/>
-        <v>-1.4578730947784704E-3</v>
+        <v>1.7912177646655981E-3</v>
       </c>
       <c r="U51" s="3">
-        <f t="shared" si="9"/>
-        <v>3.2490908594440659E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.6020852139652106E-18</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="D52" s="2">
@@ -7521,60 +7524,60 @@
         <v>0</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3958453074965104E-3</v>
       </c>
       <c r="G52" s="2">
         <v>7.9125270273968859E-2</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1842005323186873E-5</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="10"/>
-        <v>-4.4304340166534881E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
         <v>7.8157085731348278E-4</v>
       </c>
       <c r="K52" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L52" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="8">
+        <f t="shared" si="4"/>
         <v>8.8204773434797639E-3</v>
       </c>
       <c r="N52">
-        <f t="shared" si="4"/>
-        <v>0.45569565983346511</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6020482007932468E-3</v>
       </c>
       <c r="Q52" s="6">
-        <f>N52*D52</f>
-        <v>6.3608064842506833E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.979226537482552E-4</v>
       </c>
       <c r="R52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.5976465907144207E-4</v>
       </c>
       <c r="T52" s="3">
         <f t="shared" si="13"/>
-        <v>-1.8532455519475557E-3</v>
+        <v>1.3958453074965128E-3</v>
       </c>
       <c r="U52" s="3">
-        <f t="shared" si="9"/>
-        <v>3.2490908594440659E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.3852447794681098E-18</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="D53" s="2">
@@ -7584,18 +7587,18 @@
         <v>0</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4576873128196973E-3</v>
       </c>
       <c r="G53" s="2">
         <v>1.136996103999364E-2</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.7412393726179104E-4</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.25665582321499342</v>
       </c>
       <c r="J53">
@@ -7603,41 +7606,41 @@
         <v>0</v>
       </c>
       <c r="K53" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L53" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="8">
+        <f t="shared" si="4"/>
         <v>6.4102564102564097E-2</v>
       </c>
       <c r="N53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75665582321499336</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4102564102564097E-2</v>
       </c>
       <c r="Q53" s="6">
-        <f>N53*D53</f>
+        <f t="shared" si="7"/>
         <v>1.1029675936716397E-3</v>
       </c>
       <c r="R53" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2884365640984864E-4</v>
       </c>
       <c r="T53" s="3">
         <f t="shared" si="13"/>
-        <v>-1.7295615413011819E-3</v>
+        <v>1.4576873128196994E-3</v>
       </c>
       <c r="U53" s="3">
-        <f t="shared" si="9"/>
-        <v>3.1872488541208792E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="D54" s="2">
@@ -7647,60 +7650,60 @@
         <v>0</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0835633755579062E-3</v>
       </c>
       <c r="G54" s="2">
         <v>3.5860787905368798E-3</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.1372334767770164E-4</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="10"/>
-        <v>-0.28952930188893794</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
         <v>8.7483673952053184E-2</v>
       </c>
       <c r="K54" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="L54" s="9">
         <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="8">
+        <f t="shared" si="4"/>
         <v>0.15107913669064749</v>
       </c>
       <c r="N54">
-        <f t="shared" si="4"/>
-        <v>0.21047069811106206</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="O54" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23856281064270068</v>
       </c>
       <c r="Q54" s="6">
-        <f>N54*D54</f>
-        <v>2.2805834010125145E-4</v>
+        <f t="shared" si="7"/>
+        <v>5.4178168777895312E-4</v>
       </c>
       <c r="R54" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.5550503545665476E-4</v>
       </c>
       <c r="T54" s="3">
         <f t="shared" si="13"/>
-        <v>-2.1036854785629732E-3</v>
+        <v>1.0835633755579084E-3</v>
       </c>
       <c r="U54" s="3">
-        <f t="shared" si="9"/>
-        <v>3.1872488541208792E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="D55" s="2">
@@ -7710,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3972867232356079E-3</v>
       </c>
       <c r="G55" s="2">
@@ -7719,11 +7722,11 @@
       <c r="H55" s="3"/>
       <c r="T55" s="3">
         <f t="shared" si="13"/>
-        <v>-1.4762387832075697E-3</v>
+        <v>1.39728672323561E-3</v>
       </c>
       <c r="U55" s="3">
-        <f t="shared" si="9"/>
-        <v>2.8735255064431774E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.1684043449710089E-18</v>
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.2">
